--- a/inst/extdata/xl/V10.0/inputs_stics_example.xlsx
+++ b/inst/extdata/xl/V10.0/inputs_stics_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="USMs" sheetId="1" state="visible" r:id="rId2"/>
@@ -784,7 +784,7 @@
     <t xml:space="preserve">Qtot_N</t>
   </si>
   <si>
-    <t xml:space="preserve">engrais</t>
+    <t xml:space="preserve">engrais_1</t>
   </si>
   <si>
     <t xml:space="preserve">julapN_1</t>
@@ -1043,7 +1043,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1065,12 +1065,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1340,7 +1334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1409,10 +1403,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1477,19 +1467,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1497,7 +1487,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1918,7 +1908,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="15"/>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="15" t="s">
         <v>31</v>
       </c>
       <c r="R3" s="15"/>
@@ -2002,7 +1992,7 @@
       <c r="L5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2125,7 +2115,7 @@
       <c r="L8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2166,7 +2156,7 @@
       <c r="L9" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2207,7 +2197,7 @@
       <c r="L10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2248,7 +2238,7 @@
       <c r="L11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2289,7 +2279,7 @@
       <c r="L12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2330,7 +2320,7 @@
       <c r="L13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2354,7 +2344,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="1"/>
-      <c r="G23" s="18"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="1"/>
@@ -2367,23 +2357,23 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="1"/>
-      <c r="G27" s="18"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="1"/>
-      <c r="G28" s="18"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="1"/>
-      <c r="G29" s="18"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="1"/>
-      <c r="G30" s="18"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="1"/>
-      <c r="G31" s="18"/>
+      <c r="G31" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2411,7 +2401,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.85"/>
@@ -2437,7 +2427,7 @@
       <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -2458,64 +2448,64 @@
       <c r="I1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="24" t="s">
         <v>76</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="26" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2526,7 +2516,7 @@
       <c r="B2" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="0" t="n">
@@ -2547,64 +2537,64 @@
       <c r="I2" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="29" t="n">
+      <c r="J2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="30" t="n">
+      <c r="O2" s="29" t="n">
         <v>12.2498236911716</v>
       </c>
-      <c r="P2" s="30" t="n">
+      <c r="P2" s="29" t="n">
         <v>11.4051209137012</v>
       </c>
-      <c r="Q2" s="30" t="n">
+      <c r="Q2" s="29" t="n">
         <v>12.403574703501</v>
       </c>
-      <c r="R2" s="30" t="n">
+      <c r="R2" s="29" t="n">
         <v>14.0741405718364</v>
       </c>
-      <c r="S2" s="31" t="n">
+      <c r="S2" s="30" t="n">
         <v>12.5736108922922</v>
       </c>
-      <c r="T2" s="30" t="n">
+      <c r="T2" s="29" t="n">
         <v>43.322</v>
       </c>
-      <c r="U2" s="30" t="n">
+      <c r="U2" s="29" t="n">
         <v>6.1706</v>
       </c>
-      <c r="V2" s="30" t="n">
+      <c r="V2" s="29" t="n">
         <v>2.0362</v>
       </c>
-      <c r="W2" s="30" t="n">
+      <c r="W2" s="29" t="n">
         <v>1.1692</v>
       </c>
-      <c r="X2" s="31" t="n">
+      <c r="X2" s="30" t="n">
         <v>2.031</v>
       </c>
-      <c r="Y2" s="30" t="n">
+      <c r="Y2" s="29" t="n">
         <v>2.5564</v>
       </c>
-      <c r="Z2" s="30" t="n">
+      <c r="Z2" s="29" t="n">
         <v>2.1078</v>
       </c>
-      <c r="AA2" s="30" t="n">
+      <c r="AA2" s="29" t="n">
         <v>1.3432</v>
       </c>
-      <c r="AB2" s="30" t="n">
+      <c r="AB2" s="29" t="n">
         <v>1.0428</v>
       </c>
-      <c r="AC2" s="31" t="n">
+      <c r="AC2" s="30" t="n">
         <v>1.0587</v>
       </c>
     </row>
@@ -2615,7 +2605,7 @@
       <c r="B3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="0" t="n">
@@ -2636,61 +2626,61 @@
       <c r="I3" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="29" t="n">
+      <c r="J3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="32" t="n">
+      <c r="O3" s="31" t="n">
         <v>20.5</v>
       </c>
-      <c r="P3" s="32" t="n">
+      <c r="P3" s="31" t="n">
         <v>20.4</v>
       </c>
-      <c r="Q3" s="32" t="n">
+      <c r="Q3" s="31" t="n">
         <v>21.2</v>
       </c>
-      <c r="R3" s="32" t="n">
+      <c r="R3" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T3" s="29" t="n">
+      <c r="T3" s="28" t="n">
         <v>38.1</v>
       </c>
-      <c r="U3" s="29" t="n">
+      <c r="U3" s="28" t="n">
         <v>27.1</v>
       </c>
-      <c r="V3" s="29" t="n">
+      <c r="V3" s="28" t="n">
         <v>23.8</v>
       </c>
-      <c r="W3" s="29" t="n">
+      <c r="W3" s="28" t="n">
         <v>0</v>
       </c>
       <c r="X3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y3" s="29" t="n">
+      <c r="Y3" s="28" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z3" s="29" t="n">
+      <c r="Z3" s="28" t="n">
         <v>1.8</v>
       </c>
-      <c r="AA3" s="29" t="n">
+      <c r="AA3" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="AB3" s="29" t="n">
+      <c r="AB3" s="28" t="n">
         <v>0</v>
       </c>
       <c r="AC3" s="1" t="n">
@@ -2704,7 +2694,7 @@
       <c r="B4" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -2725,61 +2715,61 @@
       <c r="I4" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="29" t="n">
+      <c r="J4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="32" t="n">
+      <c r="O4" s="31" t="n">
         <v>26</v>
       </c>
-      <c r="P4" s="32" t="n">
+      <c r="P4" s="31" t="n">
         <v>21.7</v>
       </c>
-      <c r="Q4" s="32" t="n">
+      <c r="Q4" s="31" t="n">
         <v>22.4</v>
       </c>
-      <c r="R4" s="32" t="n">
+      <c r="R4" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T4" s="29" t="n">
+      <c r="T4" s="28" t="n">
         <v>3.8</v>
       </c>
-      <c r="U4" s="29" t="n">
+      <c r="U4" s="28" t="n">
         <v>13.3</v>
       </c>
-      <c r="V4" s="29" t="n">
+      <c r="V4" s="28" t="n">
         <v>11</v>
       </c>
-      <c r="W4" s="29" t="n">
+      <c r="W4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="X4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y4" s="29" t="n">
+      <c r="Y4" s="28" t="n">
         <v>4.9</v>
       </c>
-      <c r="Z4" s="29" t="n">
+      <c r="Z4" s="28" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA4" s="29" t="n">
+      <c r="AA4" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="AB4" s="29" t="n">
+      <c r="AB4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="AC4" s="1" t="n">
@@ -2793,7 +2783,7 @@
       <c r="B5" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -2814,61 +2804,61 @@
       <c r="I5" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="29" t="n">
+      <c r="J5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="32" t="n">
+      <c r="O5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T5" s="29" t="n">
+      <c r="T5" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="U5" s="29" t="n">
+      <c r="U5" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="V5" s="29" t="n">
+      <c r="V5" s="28" t="n">
         <v>15</v>
       </c>
-      <c r="W5" s="29" t="n">
+      <c r="W5" s="28" t="n">
         <v>0</v>
       </c>
       <c r="X5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" s="29" t="n">
+      <c r="Y5" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="Z5" s="29" t="n">
+      <c r="Z5" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="AA5" s="29" t="n">
+      <c r="AA5" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AB5" s="29" t="n">
+      <c r="AB5" s="28" t="n">
         <v>0</v>
       </c>
       <c r="AC5" s="1" t="n">
@@ -2882,7 +2872,7 @@
       <c r="B6" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -2903,61 +2893,61 @@
       <c r="I6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="29" t="n">
+      <c r="J6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="32" t="n">
+      <c r="O6" s="31" t="n">
         <v>25.1</v>
       </c>
-      <c r="P6" s="32" t="n">
+      <c r="P6" s="31" t="n">
         <v>22.9</v>
       </c>
-      <c r="Q6" s="32" t="n">
+      <c r="Q6" s="31" t="n">
         <v>22.4</v>
       </c>
-      <c r="R6" s="32" t="n">
+      <c r="R6" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T6" s="29" t="n">
+      <c r="T6" s="28" t="n">
         <v>22</v>
       </c>
-      <c r="U6" s="29" t="n">
+      <c r="U6" s="28" t="n">
         <v>12.2</v>
       </c>
-      <c r="V6" s="29" t="n">
+      <c r="V6" s="28" t="n">
         <v>8.4</v>
       </c>
-      <c r="W6" s="29" t="n">
+      <c r="W6" s="28" t="n">
         <v>0</v>
       </c>
       <c r="X6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" s="29" t="n">
+      <c r="Y6" s="28" t="n">
         <v>2.5</v>
       </c>
-      <c r="Z6" s="29" t="n">
+      <c r="Z6" s="28" t="n">
         <v>1.9</v>
       </c>
-      <c r="AA6" s="29" t="n">
+      <c r="AA6" s="28" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB6" s="29" t="n">
+      <c r="AB6" s="28" t="n">
         <v>0</v>
       </c>
       <c r="AC6" s="1" t="n">
@@ -2971,7 +2961,7 @@
       <c r="B7" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -2992,61 +2982,61 @@
       <c r="I7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="29" t="n">
+      <c r="J7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="32" t="n">
+      <c r="O7" s="31" t="n">
         <v>21</v>
       </c>
-      <c r="P7" s="32" t="n">
+      <c r="P7" s="31" t="n">
         <v>19.5</v>
       </c>
-      <c r="Q7" s="32" t="n">
+      <c r="Q7" s="31" t="n">
         <v>20</v>
       </c>
-      <c r="R7" s="32" t="n">
+      <c r="R7" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T7" s="29" t="n">
+      <c r="T7" s="28" t="n">
         <v>46.2</v>
       </c>
-      <c r="U7" s="29" t="n">
+      <c r="U7" s="28" t="n">
         <v>55.5</v>
       </c>
-      <c r="V7" s="29" t="n">
+      <c r="V7" s="28" t="n">
         <v>26.8</v>
       </c>
-      <c r="W7" s="29" t="n">
+      <c r="W7" s="28" t="n">
         <v>0</v>
       </c>
       <c r="X7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y7" s="29" t="n">
+      <c r="Y7" s="28" t="n">
         <v>35.5</v>
       </c>
-      <c r="Z7" s="29" t="n">
+      <c r="Z7" s="28" t="n">
         <v>50.3</v>
       </c>
-      <c r="AA7" s="29" t="n">
+      <c r="AA7" s="28" t="n">
         <v>16.5</v>
       </c>
-      <c r="AB7" s="29" t="n">
+      <c r="AB7" s="28" t="n">
         <v>0</v>
       </c>
       <c r="AC7" s="1" t="n">
@@ -3060,7 +3050,7 @@
       <c r="B8" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -3081,61 +3071,61 @@
       <c r="I8" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="29" t="n">
+      <c r="J8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="32" t="n">
+      <c r="O8" s="31" t="n">
         <v>22.7</v>
       </c>
-      <c r="P8" s="32" t="n">
+      <c r="P8" s="31" t="n">
         <v>21.1</v>
       </c>
-      <c r="Q8" s="32" t="n">
+      <c r="Q8" s="31" t="n">
         <v>21.6</v>
       </c>
-      <c r="R8" s="32" t="n">
+      <c r="R8" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T8" s="29" t="n">
+      <c r="T8" s="28" t="n">
         <v>23.1</v>
       </c>
-      <c r="U8" s="29" t="n">
+      <c r="U8" s="28" t="n">
         <v>22.3</v>
       </c>
-      <c r="V8" s="29" t="n">
+      <c r="V8" s="28" t="n">
         <v>12.9</v>
       </c>
-      <c r="W8" s="29" t="n">
+      <c r="W8" s="28" t="n">
         <v>0</v>
       </c>
       <c r="X8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" s="29" t="n">
+      <c r="Y8" s="28" t="n">
         <v>11.7</v>
       </c>
-      <c r="Z8" s="29" t="n">
+      <c r="Z8" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AA8" s="29" t="n">
+      <c r="AA8" s="28" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB8" s="29" t="n">
+      <c r="AB8" s="28" t="n">
         <v>0</v>
       </c>
       <c r="AC8" s="1" t="n">
@@ -3149,7 +3139,7 @@
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="0" t="n">
@@ -3170,61 +3160,61 @@
       <c r="I9" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="29" t="n">
+      <c r="J9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="32" t="n">
+      <c r="O9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T9" s="29" t="n">
+      <c r="T9" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="U9" s="29" t="n">
+      <c r="U9" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="V9" s="29" t="n">
+      <c r="V9" s="28" t="n">
         <v>15</v>
       </c>
-      <c r="W9" s="29" t="n">
+      <c r="W9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="X9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" s="29" t="n">
+      <c r="Y9" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="Z9" s="29" t="n">
+      <c r="Z9" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="AA9" s="29" t="n">
+      <c r="AA9" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AB9" s="29" t="n">
+      <c r="AB9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="AC9" s="1" t="n">
@@ -3261,14 +3251,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="33" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="33" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="33" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="15" style="33" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="33" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="39" style="33" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="63" style="33" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="33" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="32" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="32" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="32" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="15" style="32" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="32" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="39" style="32" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="63" style="32" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="32" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="67" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="253" min="74" style="0" width="10.57"/>
@@ -3467,403 +3457,403 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="36" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Y1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="Z1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AA1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AE1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AG1" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AH1" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AI1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="AJ1" s="35" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="35" t="s">
+      <c r="AK1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="AL1" s="35" t="s">
+      <c r="AL1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="AM1" s="35" t="s">
+      <c r="AM1" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="AN1" s="35" t="s">
+      <c r="AN1" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="AO1" s="35" t="s">
+      <c r="AO1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="AP1" s="36" t="s">
+      <c r="AP1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="AQ1" s="36" t="s">
+      <c r="AQ1" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="AR1" s="36" t="s">
+      <c r="AR1" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AS1" s="36" t="s">
+      <c r="AS1" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AT1" s="36" t="s">
+      <c r="AT1" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="AU1" s="36" t="s">
+      <c r="AU1" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AV1" s="36" t="s">
+      <c r="AV1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AW1" s="36" t="s">
+      <c r="AW1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AX1" s="35" t="s">
+      <c r="AX1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AY1" s="35" t="s">
+      <c r="AY1" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="AZ1" s="35" t="s">
+      <c r="AZ1" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="BA1" s="35" t="s">
+      <c r="BA1" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="BB1" s="35" t="s">
+      <c r="BB1" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="BC1" s="35" t="s">
+      <c r="BC1" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="BD1" s="35" t="s">
+      <c r="BD1" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="BE1" s="35" t="s">
+      <c r="BE1" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="BF1" s="36" t="s">
+      <c r="BF1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="BG1" s="36" t="s">
+      <c r="BG1" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="BH1" s="36" t="s">
+      <c r="BH1" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="BI1" s="36" t="s">
+      <c r="BI1" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="BJ1" s="36" t="s">
+      <c r="BJ1" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="BK1" s="36" t="s">
+      <c r="BK1" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="BL1" s="36" t="s">
+      <c r="BL1" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="BM1" s="36" t="s">
+      <c r="BM1" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="BN1" s="36" t="s">
+      <c r="BN1" s="35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="38" t="n">
+      <c r="B2" s="37" t="n">
         <v>20.35</v>
       </c>
-      <c r="C2" s="38" t="n">
+      <c r="C2" s="37" t="n">
         <v>0.1</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="E2" s="38" t="n">
+      <c r="E2" s="37" t="n">
         <v>0.52</v>
       </c>
-      <c r="F2" s="38" t="n">
+      <c r="F2" s="37" t="n">
         <v>8.23</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H2" s="39" t="n">
+      <c r="H2" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I2" s="38" t="n">
+      <c r="I2" s="37" t="n">
         <v>9.63</v>
       </c>
-      <c r="J2" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="38" t="n">
+      <c r="J2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="37" t="n">
         <v>200</v>
       </c>
-      <c r="L2" s="38" t="n">
+      <c r="L2" s="37" t="n">
         <v>50</v>
       </c>
-      <c r="M2" s="38" t="n">
+      <c r="M2" s="37" t="n">
         <v>0.5</v>
       </c>
-      <c r="N2" s="38" t="n">
+      <c r="N2" s="37" t="n">
         <v>60</v>
       </c>
-      <c r="O2" s="38" t="n">
+      <c r="O2" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="P2" s="38" t="n">
+      <c r="P2" s="37" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q2" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="38" t="n">
+      <c r="Q2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="37" t="n">
         <v>0.33</v>
       </c>
-      <c r="S2" s="38" t="n">
+      <c r="S2" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="T2" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="38" t="n">
+      <c r="T2" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="V2" s="38" t="n">
+      <c r="V2" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="W2" s="38" t="n">
+      <c r="W2" s="37" t="n">
         <v>10</v>
       </c>
-      <c r="X2" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="38" t="n">
+      <c r="X2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="AB2" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="38" t="n">
+      <c r="AB2" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="37" t="n">
         <v>10</v>
       </c>
-      <c r="AD2" s="38" t="n">
+      <c r="AD2" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="AE2" s="38" t="n">
+      <c r="AE2" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="AF2" s="38" t="n">
+      <c r="AF2" s="37" t="n">
         <v>20</v>
       </c>
-      <c r="AG2" s="38" t="n">
+      <c r="AG2" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="AH2" s="40" t="n">
+      <c r="AH2" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="AI2" s="41" t="n">
+      <c r="AI2" s="40" t="n">
         <v>23.75</v>
       </c>
-      <c r="AJ2" s="41" t="n">
+      <c r="AJ2" s="40" t="n">
         <v>10.69</v>
       </c>
-      <c r="AK2" s="41" t="n">
+      <c r="AK2" s="40" t="n">
         <v>1.378</v>
       </c>
-      <c r="AL2" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="41" t="n">
+      <c r="AL2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO2" s="41" t="n">
+      <c r="AO2" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP2" s="40" t="n">
+      <c r="AP2" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="AQ2" s="41" t="n">
+      <c r="AQ2" s="40" t="n">
         <v>23.75</v>
       </c>
-      <c r="AR2" s="41" t="n">
+      <c r="AR2" s="40" t="n">
         <v>10.69</v>
       </c>
-      <c r="AS2" s="42" t="n">
+      <c r="AS2" s="41" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT2" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="42" t="n">
+      <c r="AT2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="AW2" s="42" t="n">
+      <c r="AW2" s="41" t="n">
         <v>10</v>
       </c>
-      <c r="AX2" s="40" t="n">
+      <c r="AX2" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="AY2" s="41" t="n">
+      <c r="AY2" s="40" t="n">
         <v>22.2</v>
       </c>
-      <c r="AZ2" s="41" t="n">
+      <c r="AZ2" s="40" t="n">
         <v>9.99</v>
       </c>
-      <c r="BA2" s="42" t="n">
+      <c r="BA2" s="41" t="n">
         <v>1.556</v>
       </c>
-      <c r="BB2" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="41" t="n">
+      <c r="BB2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE2" s="41" t="n">
+      <c r="BE2" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF2" s="40" t="n">
+      <c r="BF2" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="BG2" s="41" t="n">
+      <c r="BG2" s="40" t="n">
         <v>22.28</v>
       </c>
-      <c r="BH2" s="41" t="n">
+      <c r="BH2" s="40" t="n">
         <v>10.02</v>
       </c>
-      <c r="BI2" s="42" t="n">
+      <c r="BI2" s="41" t="n">
         <v>1.588</v>
       </c>
-      <c r="BJ2" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="42" t="n">
+      <c r="BJ2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="BM2" s="42" t="n">
+      <c r="BM2" s="41" t="n">
         <v>10</v>
       </c>
-      <c r="BN2" s="33" t="n">
+      <c r="BN2" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3889,181 +3879,181 @@
       <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="39" t="n">
+      <c r="H3" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="32" t="n">
         <v>9.36</v>
       </c>
-      <c r="J3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="33" t="n">
+      <c r="J3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32" t="n">
         <v>155</v>
       </c>
-      <c r="L3" s="33" t="n">
+      <c r="L3" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M3" s="33" t="n">
+      <c r="M3" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N3" s="33" t="n">
+      <c r="N3" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O3" s="33" t="n">
+      <c r="O3" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P3" s="33" t="n">
+      <c r="P3" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="33" t="n">
+      <c r="Q3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S3" s="33" t="n">
+      <c r="S3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T3" s="33" t="n">
+      <c r="T3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U3" s="33" t="n">
+      <c r="U3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V3" s="33" t="n">
+      <c r="V3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W3" s="33" t="n">
+      <c r="W3" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="33" t="n">
+      <c r="X3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="33" t="n">
+      <c r="AB3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD3" s="33" t="n">
+      <c r="AD3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE3" s="33" t="n">
+      <c r="AE3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF3" s="33" t="n">
+      <c r="AF3" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG3" s="33" t="n">
+      <c r="AG3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH3" s="33" t="n">
+      <c r="AH3" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AI3" s="33" t="n">
+      <c r="AI3" s="32" t="n">
         <v>23.75642</v>
       </c>
-      <c r="AJ3" s="33" t="n">
+      <c r="AJ3" s="32" t="n">
         <v>8.7169</v>
       </c>
-      <c r="AK3" s="33" t="n">
+      <c r="AK3" s="32" t="n">
         <v>1.384</v>
       </c>
-      <c r="AL3" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="41" t="n">
+      <c r="AL3" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO3" s="41" t="n">
+      <c r="AO3" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP3" s="33" t="n">
+      <c r="AP3" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="AQ3" s="33" t="n">
+      <c r="AQ3" s="32" t="n">
         <v>22.07603</v>
       </c>
-      <c r="AR3" s="33" t="n">
+      <c r="AR3" s="32" t="n">
         <v>10.233</v>
       </c>
-      <c r="AS3" s="33" t="n">
+      <c r="AS3" s="32" t="n">
         <v>1.6</v>
       </c>
-      <c r="AT3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="33" t="n">
+      <c r="AT3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW3" s="33" t="n">
+      <c r="AW3" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX3" s="33" t="n">
+      <c r="AX3" s="32" t="n">
         <v>35</v>
       </c>
-      <c r="AY3" s="33" t="n">
+      <c r="AY3" s="32" t="n">
         <v>21.91055</v>
       </c>
-      <c r="AZ3" s="33" t="n">
+      <c r="AZ3" s="32" t="n">
         <v>11.6035</v>
       </c>
-      <c r="BA3" s="33" t="n">
+      <c r="BA3" s="32" t="n">
         <v>1.61</v>
       </c>
-      <c r="BB3" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="41" t="n">
+      <c r="BB3" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE3" s="41" t="n">
+      <c r="BE3" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF3" s="33" t="n">
+      <c r="BF3" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BG3" s="33" t="n">
+      <c r="BG3" s="32" t="n">
         <v>22.11954</v>
       </c>
-      <c r="BH3" s="33" t="n">
+      <c r="BH3" s="32" t="n">
         <v>10.78948</v>
       </c>
-      <c r="BI3" s="33" t="n">
+      <c r="BI3" s="32" t="n">
         <v>1.59</v>
       </c>
-      <c r="BJ3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="33" t="n">
+      <c r="BJ3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM3" s="33" t="n">
+      <c r="BM3" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN3" s="33" t="n">
+      <c r="BN3" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4089,181 +4079,181 @@
       <c r="G4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="39" t="n">
+      <c r="H4" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="32" t="n">
         <v>9.36</v>
       </c>
-      <c r="J4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="33" t="n">
+      <c r="J4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32" t="n">
         <v>120</v>
       </c>
-      <c r="L4" s="33" t="n">
+      <c r="L4" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N4" s="33" t="n">
+      <c r="N4" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O4" s="33" t="n">
+      <c r="O4" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P4" s="33" t="n">
+      <c r="P4" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="33" t="n">
+      <c r="Q4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S4" s="33" t="n">
+      <c r="S4" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T4" s="33" t="n">
+      <c r="T4" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U4" s="33" t="n">
+      <c r="U4" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V4" s="33" t="n">
+      <c r="V4" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W4" s="33" t="n">
+      <c r="W4" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="33" t="n">
+      <c r="X4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="33" t="n">
+      <c r="AB4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD4" s="33" t="n">
+      <c r="AD4" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE4" s="33" t="n">
+      <c r="AE4" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF4" s="33" t="n">
+      <c r="AF4" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG4" s="33" t="n">
+      <c r="AG4" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH4" s="33" t="n">
+      <c r="AH4" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AI4" s="33" t="n">
+      <c r="AI4" s="32" t="n">
         <v>23.55866</v>
       </c>
-      <c r="AJ4" s="33" t="n">
+      <c r="AJ4" s="32" t="n">
         <v>8.63507</v>
       </c>
-      <c r="AK4" s="33" t="n">
+      <c r="AK4" s="32" t="n">
         <v>1.388</v>
       </c>
-      <c r="AL4" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="41" t="n">
+      <c r="AL4" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO4" s="41" t="n">
+      <c r="AO4" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP4" s="33" t="n">
+      <c r="AP4" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="AQ4" s="33" t="n">
+      <c r="AQ4" s="32" t="n">
         <v>22.07603</v>
       </c>
-      <c r="AR4" s="33" t="n">
+      <c r="AR4" s="32" t="n">
         <v>10.233</v>
       </c>
-      <c r="AS4" s="33" t="n">
+      <c r="AS4" s="32" t="n">
         <v>1.6</v>
       </c>
-      <c r="AT4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="33" t="n">
+      <c r="AT4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW4" s="33" t="n">
+      <c r="AW4" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX4" s="33" t="n">
+      <c r="AX4" s="32" t="n">
         <v>35</v>
       </c>
-      <c r="AY4" s="33" t="n">
+      <c r="AY4" s="32" t="n">
         <v>21.91055</v>
       </c>
-      <c r="AZ4" s="33" t="n">
+      <c r="AZ4" s="32" t="n">
         <v>11.6035</v>
       </c>
-      <c r="BA4" s="33" t="n">
+      <c r="BA4" s="32" t="n">
         <v>1.61</v>
       </c>
-      <c r="BB4" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="41" t="n">
+      <c r="BB4" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE4" s="41" t="n">
+      <c r="BE4" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF4" s="33" t="n">
+      <c r="BF4" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BG4" s="33" t="n">
+      <c r="BG4" s="32" t="n">
         <v>22.11954</v>
       </c>
-      <c r="BH4" s="33" t="n">
+      <c r="BH4" s="32" t="n">
         <v>10.78948</v>
       </c>
-      <c r="BI4" s="33" t="n">
+      <c r="BI4" s="32" t="n">
         <v>1.59</v>
       </c>
-      <c r="BJ4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="33" t="n">
+      <c r="BJ4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM4" s="33" t="n">
+      <c r="BM4" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN4" s="33" t="n">
+      <c r="BN4" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4289,181 +4279,181 @@
       <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="39" t="n">
+      <c r="H5" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="32" t="n">
         <v>9.76</v>
       </c>
-      <c r="J5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="33" t="n">
+      <c r="J5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="L5" s="33" t="n">
+      <c r="L5" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M5" s="33" t="n">
+      <c r="M5" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N5" s="33" t="n">
+      <c r="N5" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O5" s="33" t="n">
+      <c r="O5" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P5" s="33" t="n">
+      <c r="P5" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="33" t="n">
+      <c r="Q5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S5" s="33" t="n">
+      <c r="S5" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T5" s="33" t="n">
+      <c r="T5" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U5" s="33" t="n">
+      <c r="U5" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V5" s="33" t="n">
+      <c r="V5" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W5" s="33" t="n">
+      <c r="W5" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="33" t="n">
+      <c r="X5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB5" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="33" t="n">
+      <c r="AB5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD5" s="33" t="n">
+      <c r="AD5" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE5" s="33" t="n">
+      <c r="AE5" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF5" s="33" t="n">
+      <c r="AF5" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG5" s="33" t="n">
+      <c r="AG5" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH5" s="33" t="n">
+      <c r="AH5" s="32" t="n">
         <v>25</v>
       </c>
-      <c r="AI5" s="33" t="n">
+      <c r="AI5" s="32" t="n">
         <v>23.9972</v>
       </c>
-      <c r="AJ5" s="33" t="n">
+      <c r="AJ5" s="32" t="n">
         <v>10.5145</v>
       </c>
-      <c r="AK5" s="33" t="n">
+      <c r="AK5" s="32" t="n">
         <v>1.379</v>
       </c>
-      <c r="AL5" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="41" t="n">
+      <c r="AL5" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO5" s="41" t="n">
+      <c r="AO5" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP5" s="33" t="n">
+      <c r="AP5" s="32" t="n">
         <v>25</v>
       </c>
-      <c r="AQ5" s="33" t="n">
+      <c r="AQ5" s="32" t="n">
         <v>21.44407</v>
       </c>
-      <c r="AR5" s="33" t="n">
+      <c r="AR5" s="32" t="n">
         <v>9.60248</v>
       </c>
-      <c r="AS5" s="33" t="n">
+      <c r="AS5" s="32" t="n">
         <v>1.61</v>
       </c>
-      <c r="AT5" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="33" t="n">
+      <c r="AT5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW5" s="33" t="n">
+      <c r="AW5" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX5" s="33" t="n">
+      <c r="AX5" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AY5" s="33" t="n">
+      <c r="AY5" s="32" t="n">
         <v>21.52376</v>
       </c>
-      <c r="AZ5" s="33" t="n">
+      <c r="AZ5" s="32" t="n">
         <v>10.33508</v>
       </c>
-      <c r="BA5" s="33" t="n">
+      <c r="BA5" s="32" t="n">
         <v>1.61</v>
       </c>
-      <c r="BB5" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="41" t="n">
+      <c r="BB5" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE5" s="41" t="n">
+      <c r="BE5" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF5" s="33" t="n">
+      <c r="BF5" s="32" t="n">
         <v>80</v>
       </c>
-      <c r="BG5" s="33" t="n">
+      <c r="BG5" s="32" t="n">
         <v>21.46918</v>
       </c>
-      <c r="BH5" s="33" t="n">
+      <c r="BH5" s="32" t="n">
         <v>10.34594</v>
       </c>
-      <c r="BI5" s="33" t="n">
+      <c r="BI5" s="32" t="n">
         <v>1.61</v>
       </c>
-      <c r="BJ5" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="33" t="n">
+      <c r="BJ5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM5" s="33" t="n">
+      <c r="BM5" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN5" s="33" t="n">
+      <c r="BN5" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4489,181 +4479,181 @@
       <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="39" t="n">
+      <c r="H6" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="32" t="n">
         <v>9.928</v>
       </c>
-      <c r="J6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="33" t="n">
+      <c r="J6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="32" t="n">
         <v>200</v>
       </c>
-      <c r="L6" s="33" t="n">
+      <c r="L6" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M6" s="33" t="n">
+      <c r="M6" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="33" t="n">
+      <c r="N6" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O6" s="33" t="n">
+      <c r="O6" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P6" s="33" t="n">
+      <c r="P6" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="33" t="n">
+      <c r="Q6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="33" t="n">
+      <c r="S6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U6" s="33" t="n">
+      <c r="U6" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V6" s="33" t="n">
+      <c r="V6" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W6" s="33" t="n">
+      <c r="W6" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="33" t="n">
+      <c r="X6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="33" t="n">
+      <c r="AB6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD6" s="33" t="n">
+      <c r="AD6" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE6" s="33" t="n">
+      <c r="AE6" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF6" s="33" t="n">
+      <c r="AF6" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG6" s="33" t="n">
+      <c r="AG6" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH6" s="33" t="n">
+      <c r="AH6" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AI6" s="33" t="n">
+      <c r="AI6" s="32" t="n">
         <v>24.46466</v>
       </c>
-      <c r="AJ6" s="33" t="n">
+      <c r="AJ6" s="32" t="n">
         <v>12.33346</v>
       </c>
-      <c r="AK6" s="33" t="n">
+      <c r="AK6" s="32" t="n">
         <v>1.357</v>
       </c>
-      <c r="AL6" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="41" t="n">
+      <c r="AL6" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO6" s="41" t="n">
+      <c r="AO6" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP6" s="33" t="n">
+      <c r="AP6" s="32" t="n">
         <v>65</v>
       </c>
-      <c r="AQ6" s="33" t="n">
+      <c r="AQ6" s="32" t="n">
         <v>22.42365</v>
       </c>
-      <c r="AR6" s="33" t="n">
+      <c r="AR6" s="32" t="n">
         <v>11.97536</v>
       </c>
-      <c r="AS6" s="33" t="n">
+      <c r="AS6" s="32" t="n">
         <v>1.519</v>
       </c>
-      <c r="AT6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="33" t="n">
+      <c r="AT6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW6" s="33" t="n">
+      <c r="AW6" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX6" s="33" t="n">
+      <c r="AX6" s="32" t="n">
         <v>55</v>
       </c>
-      <c r="AY6" s="33" t="n">
+      <c r="AY6" s="32" t="n">
         <v>20.77105</v>
       </c>
-      <c r="AZ6" s="33" t="n">
+      <c r="AZ6" s="32" t="n">
         <v>11.76273</v>
       </c>
-      <c r="BA6" s="33" t="n">
+      <c r="BA6" s="32" t="n">
         <v>1.574</v>
       </c>
-      <c r="BB6" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="41" t="n">
+      <c r="BB6" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE6" s="41" t="n">
+      <c r="BE6" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="33" t="n">
+      <c r="BF6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM6" s="33" t="n">
+      <c r="BM6" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN6" s="33" t="n">
+      <c r="BN6" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4689,181 +4679,181 @@
       <c r="G7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="39" t="n">
+      <c r="H7" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="32" t="n">
         <v>10.4</v>
       </c>
-      <c r="J7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="33" t="n">
+      <c r="J7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="32" t="n">
         <v>150</v>
       </c>
-      <c r="L7" s="33" t="n">
+      <c r="L7" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M7" s="33" t="n">
+      <c r="M7" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="33" t="n">
+      <c r="N7" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O7" s="33" t="n">
+      <c r="O7" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P7" s="33" t="n">
+      <c r="P7" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="33" t="n">
+      <c r="Q7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S7" s="33" t="n">
+      <c r="S7" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T7" s="33" t="n">
+      <c r="T7" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U7" s="33" t="n">
+      <c r="U7" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V7" s="33" t="n">
+      <c r="V7" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W7" s="33" t="n">
+      <c r="W7" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="33" t="n">
+      <c r="X7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB7" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="33" t="n">
+      <c r="AB7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD7" s="33" t="n">
+      <c r="AD7" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE7" s="33" t="n">
+      <c r="AE7" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF7" s="33" t="n">
+      <c r="AF7" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG7" s="33" t="n">
+      <c r="AG7" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH7" s="33" t="n">
+      <c r="AH7" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AI7" s="33" t="n">
+      <c r="AI7" s="32" t="n">
         <v>24.72421</v>
       </c>
-      <c r="AJ7" s="33" t="n">
+      <c r="AJ7" s="32" t="n">
         <v>13.701</v>
       </c>
-      <c r="AK7" s="33" t="n">
+      <c r="AK7" s="32" t="n">
         <v>1.365</v>
       </c>
-      <c r="AL7" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="41" t="n">
+      <c r="AL7" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO7" s="41" t="n">
+      <c r="AO7" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP7" s="33" t="n">
+      <c r="AP7" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AQ7" s="33" t="n">
+      <c r="AQ7" s="32" t="n">
         <v>27.81205</v>
       </c>
-      <c r="AR7" s="33" t="n">
+      <c r="AR7" s="32" t="n">
         <v>22.04558</v>
       </c>
-      <c r="AS7" s="33" t="n">
+      <c r="AS7" s="32" t="n">
         <v>1.411</v>
       </c>
-      <c r="AT7" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="33" t="n">
+      <c r="AT7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW7" s="33" t="n">
+      <c r="AW7" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX7" s="33" t="n">
+      <c r="AX7" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AY7" s="33" t="n">
+      <c r="AY7" s="32" t="n">
         <v>19.7482</v>
       </c>
-      <c r="AZ7" s="33" t="n">
+      <c r="AZ7" s="32" t="n">
         <v>13.4294</v>
       </c>
-      <c r="BA7" s="33" t="n">
+      <c r="BA7" s="32" t="n">
         <v>1.636</v>
       </c>
-      <c r="BB7" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="41" t="n">
+      <c r="BB7" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE7" s="41" t="n">
+      <c r="BE7" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="33" t="n">
+      <c r="BF7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM7" s="33" t="n">
+      <c r="BM7" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN7" s="33" t="n">
+      <c r="BN7" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4889,181 +4879,181 @@
       <c r="G8" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H8" s="39" t="n">
+      <c r="H8" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I8" s="33" t="n">
+      <c r="I8" s="32" t="n">
         <v>9.792</v>
       </c>
-      <c r="J8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="33" t="n">
+      <c r="J8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32" t="n">
         <v>200</v>
       </c>
-      <c r="L8" s="33" t="n">
+      <c r="L8" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M8" s="33" t="n">
+      <c r="M8" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N8" s="33" t="n">
+      <c r="N8" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O8" s="33" t="n">
+      <c r="O8" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P8" s="33" t="n">
+      <c r="P8" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="33" t="n">
+      <c r="Q8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S8" s="33" t="n">
+      <c r="S8" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T8" s="33" t="n">
+      <c r="T8" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U8" s="33" t="n">
+      <c r="U8" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V8" s="33" t="n">
+      <c r="V8" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W8" s="33" t="n">
+      <c r="W8" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="33" t="n">
+      <c r="X8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB8" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="33" t="n">
+      <c r="AB8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD8" s="33" t="n">
+      <c r="AD8" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE8" s="33" t="n">
+      <c r="AE8" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF8" s="33" t="n">
+      <c r="AF8" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG8" s="33" t="n">
+      <c r="AG8" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH8" s="33" t="n">
+      <c r="AH8" s="32" t="n">
         <v>25</v>
       </c>
-      <c r="AI8" s="33" t="n">
+      <c r="AI8" s="32" t="n">
         <v>24.74253</v>
       </c>
-      <c r="AJ8" s="33" t="n">
+      <c r="AJ8" s="32" t="n">
         <v>10.79102</v>
       </c>
-      <c r="AK8" s="33" t="n">
+      <c r="AK8" s="32" t="n">
         <v>1.379</v>
       </c>
-      <c r="AL8" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="41" t="n">
+      <c r="AL8" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO8" s="41" t="n">
+      <c r="AO8" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP8" s="33" t="n">
+      <c r="AP8" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="AQ8" s="33" t="n">
+      <c r="AQ8" s="32" t="n">
         <v>22.29392</v>
       </c>
-      <c r="AR8" s="33" t="n">
+      <c r="AR8" s="32" t="n">
         <v>8.76972</v>
       </c>
-      <c r="AS8" s="33" t="n">
+      <c r="AS8" s="32" t="n">
         <v>1.586</v>
       </c>
-      <c r="AT8" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="33" t="n">
+      <c r="AT8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW8" s="33" t="n">
+      <c r="AW8" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX8" s="33" t="n">
+      <c r="AX8" s="32" t="n">
         <v>110</v>
       </c>
-      <c r="AY8" s="33" t="n">
+      <c r="AY8" s="32" t="n">
         <v>22.04337</v>
       </c>
-      <c r="AZ8" s="33" t="n">
+      <c r="AZ8" s="32" t="n">
         <v>8.03415</v>
       </c>
-      <c r="BA8" s="33" t="n">
+      <c r="BA8" s="32" t="n">
         <v>1.601</v>
       </c>
-      <c r="BB8" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="41" t="n">
+      <c r="BB8" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE8" s="41" t="n">
+      <c r="BE8" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="33" t="n">
+      <c r="BF8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM8" s="33" t="n">
+      <c r="BM8" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN8" s="33" t="n">
+      <c r="BN8" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5089,181 +5079,181 @@
       <c r="G9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="39" t="n">
+      <c r="H9" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I9" s="33" t="n">
+      <c r="I9" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="J9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="33" t="n">
+      <c r="J9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="32" t="n">
         <v>200</v>
       </c>
-      <c r="L9" s="33" t="n">
+      <c r="L9" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M9" s="33" t="n">
+      <c r="M9" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N9" s="33" t="n">
+      <c r="N9" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O9" s="33" t="n">
+      <c r="O9" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P9" s="33" t="n">
+      <c r="P9" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="33" t="n">
+      <c r="Q9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S9" s="33" t="n">
+      <c r="S9" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T9" s="33" t="n">
+      <c r="T9" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U9" s="33" t="n">
+      <c r="U9" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V9" s="33" t="n">
+      <c r="V9" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W9" s="33" t="n">
+      <c r="W9" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="33" t="n">
+      <c r="X9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB9" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="33" t="n">
+      <c r="AB9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD9" s="33" t="n">
+      <c r="AD9" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE9" s="33" t="n">
+      <c r="AE9" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF9" s="33" t="n">
+      <c r="AF9" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG9" s="33" t="n">
+      <c r="AG9" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH9" s="33" t="n">
+      <c r="AH9" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AI9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="33" t="n">
+      <c r="AI9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="32" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL9" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="41" t="n">
+      <c r="AL9" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO9" s="41" t="n">
+      <c r="AO9" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP9" s="33" t="n">
+      <c r="AP9" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AQ9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="33" t="n">
+      <c r="AQ9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT9" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="33" t="n">
+      <c r="AT9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW9" s="33" t="n">
+      <c r="AW9" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX9" s="33" t="n">
+      <c r="AX9" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AY9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="33" t="n">
+      <c r="AY9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="BB9" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC9" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="41" t="n">
+      <c r="BB9" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE9" s="41" t="n">
+      <c r="BE9" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="33" t="n">
+      <c r="BF9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM9" s="33" t="n">
+      <c r="BM9" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN9" s="33" t="n">
+      <c r="BN9" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5289,181 +5279,181 @@
       <c r="G10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="39" t="n">
+      <c r="H10" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I10" s="33" t="n">
+      <c r="I10" s="32" t="n">
         <v>9.144</v>
       </c>
-      <c r="J10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="33" t="n">
+      <c r="J10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="32" t="n">
         <v>200</v>
       </c>
-      <c r="L10" s="33" t="n">
+      <c r="L10" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M10" s="33" t="n">
+      <c r="M10" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N10" s="33" t="n">
+      <c r="N10" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O10" s="33" t="n">
+      <c r="O10" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P10" s="33" t="n">
+      <c r="P10" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="33" t="n">
+      <c r="Q10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S10" s="33" t="n">
+      <c r="S10" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T10" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="33" t="n">
+      <c r="T10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W10" s="33" t="n">
+      <c r="W10" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="33" t="n">
+      <c r="X10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB10" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="33" t="n">
+      <c r="AB10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="AD10" s="33" t="n">
+      <c r="AD10" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE10" s="33" t="n">
+      <c r="AE10" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF10" s="33" t="n">
+      <c r="AF10" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG10" s="33" t="n">
+      <c r="AG10" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH10" s="33" t="n">
+      <c r="AH10" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AI10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="33" t="n">
+      <c r="AI10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="32" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL10" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="41" t="n">
+      <c r="AL10" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO10" s="41" t="n">
+      <c r="AO10" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP10" s="33" t="n">
+      <c r="AP10" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AQ10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="33" t="n">
+      <c r="AQ10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT10" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="33" t="n">
+      <c r="AT10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW10" s="33" t="n">
+      <c r="AW10" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX10" s="33" t="n">
+      <c r="AX10" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AY10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="33" t="n">
+      <c r="AY10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="BB10" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC10" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="41" t="n">
+      <c r="BB10" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE10" s="41" t="n">
+      <c r="BE10" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="33" t="n">
+      <c r="BF10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM10" s="33" t="n">
+      <c r="BM10" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN10" s="33" t="n">
+      <c r="BN10" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5489,181 +5479,181 @@
       <c r="G11" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="H11" s="39" t="n">
+      <c r="H11" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I11" s="33" t="n">
+      <c r="I11" s="32" t="n">
         <v>8.944</v>
       </c>
-      <c r="J11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="33" t="n">
+      <c r="J11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="32" t="n">
         <v>90</v>
       </c>
-      <c r="L11" s="33" t="n">
+      <c r="L11" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M11" s="33" t="n">
+      <c r="M11" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N11" s="33" t="n">
+      <c r="N11" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O11" s="33" t="n">
+      <c r="O11" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P11" s="33" t="n">
+      <c r="P11" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="33" t="n">
+      <c r="Q11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S11" s="33" t="n">
+      <c r="S11" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T11" s="33" t="n">
+      <c r="T11" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U11" s="33" t="n">
+      <c r="U11" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V11" s="33" t="n">
+      <c r="V11" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W11" s="33" t="n">
+      <c r="W11" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="33" t="n">
+      <c r="X11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB11" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="33" t="n">
+      <c r="AB11" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD11" s="33" t="n">
+      <c r="AD11" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE11" s="33" t="n">
+      <c r="AE11" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF11" s="33" t="n">
+      <c r="AF11" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG11" s="33" t="n">
+      <c r="AG11" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH11" s="33" t="n">
+      <c r="AH11" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AI11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="33" t="n">
+      <c r="AI11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="32" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL11" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="41" t="n">
+      <c r="AL11" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO11" s="41" t="n">
+      <c r="AO11" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP11" s="33" t="n">
+      <c r="AP11" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AQ11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="33" t="n">
+      <c r="AQ11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT11" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="33" t="n">
+      <c r="AT11" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW11" s="33" t="n">
+      <c r="AW11" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX11" s="33" t="n">
+      <c r="AX11" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AY11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="33" t="n">
+      <c r="AY11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="BB11" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="41" t="n">
+      <c r="BB11" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE11" s="41" t="n">
+      <c r="BE11" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="33" t="n">
+      <c r="BF11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM11" s="33" t="n">
+      <c r="BM11" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN11" s="33" t="n">
+      <c r="BN11" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5689,181 +5679,181 @@
       <c r="G12" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="H12" s="39" t="n">
+      <c r="H12" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I12" s="33" t="n">
+      <c r="I12" s="32" t="n">
         <v>9.144</v>
       </c>
-      <c r="J12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="33" t="n">
+      <c r="J12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="L12" s="33" t="n">
+      <c r="L12" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M12" s="33" t="n">
+      <c r="M12" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N12" s="33" t="n">
+      <c r="N12" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O12" s="33" t="n">
+      <c r="O12" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P12" s="33" t="n">
+      <c r="P12" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="33" t="n">
+      <c r="Q12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S12" s="33" t="n">
+      <c r="S12" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T12" s="33" t="n">
+      <c r="T12" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U12" s="33" t="n">
+      <c r="U12" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V12" s="33" t="n">
+      <c r="V12" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W12" s="33" t="n">
+      <c r="W12" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="33" t="n">
+      <c r="X12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB12" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="33" t="n">
+      <c r="AB12" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD12" s="33" t="n">
+      <c r="AD12" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE12" s="33" t="n">
+      <c r="AE12" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF12" s="33" t="n">
+      <c r="AF12" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG12" s="33" t="n">
+      <c r="AG12" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH12" s="33" t="n">
+      <c r="AH12" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AI12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="33" t="n">
+      <c r="AI12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="32" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL12" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="41" t="n">
+      <c r="AL12" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO12" s="41" t="n">
+      <c r="AO12" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP12" s="33" t="n">
+      <c r="AP12" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AQ12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="33" t="n">
+      <c r="AQ12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT12" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="33" t="n">
+      <c r="AT12" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW12" s="33" t="n">
+      <c r="AW12" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX12" s="33" t="n">
+      <c r="AX12" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AY12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="33" t="n">
+      <c r="AY12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="BB12" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="41" t="n">
+      <c r="BB12" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE12" s="41" t="n">
+      <c r="BE12" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="33" t="n">
+      <c r="BF12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM12" s="33" t="n">
+      <c r="BM12" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN12" s="33" t="n">
+      <c r="BN12" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5889,181 +5879,181 @@
       <c r="G13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="39" t="n">
+      <c r="H13" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I13" s="33" t="n">
+      <c r="I13" s="32" t="n">
         <v>9.344</v>
       </c>
-      <c r="J13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="33" t="n">
+      <c r="J13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="32" t="n">
         <v>200</v>
       </c>
-      <c r="L13" s="33" t="n">
+      <c r="L13" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M13" s="33" t="n">
+      <c r="M13" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N13" s="33" t="n">
+      <c r="N13" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O13" s="33" t="n">
+      <c r="O13" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P13" s="33" t="n">
+      <c r="P13" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="33" t="n">
+      <c r="Q13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S13" s="33" t="n">
+      <c r="S13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T13" s="33" t="n">
+      <c r="T13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U13" s="33" t="n">
+      <c r="U13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V13" s="33" t="n">
+      <c r="V13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W13" s="33" t="n">
+      <c r="W13" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="33" t="n">
+      <c r="X13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="33" t="n">
+      <c r="AB13" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD13" s="33" t="n">
+      <c r="AD13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE13" s="33" t="n">
+      <c r="AE13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF13" s="33" t="n">
+      <c r="AF13" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG13" s="33" t="n">
+      <c r="AG13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH13" s="33" t="n">
+      <c r="AH13" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AI13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="33" t="n">
+      <c r="AI13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="32" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL13" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="41" t="n">
+      <c r="AL13" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO13" s="41" t="n">
+      <c r="AO13" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP13" s="33" t="n">
+      <c r="AP13" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AQ13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="33" t="n">
+      <c r="AQ13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="33" t="n">
+      <c r="AT13" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW13" s="33" t="n">
+      <c r="AW13" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX13" s="33" t="n">
+      <c r="AX13" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AY13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="33" t="n">
+      <c r="AY13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="BB13" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="41" t="n">
+      <c r="BB13" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE13" s="41" t="n">
+      <c r="BE13" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="33" t="n">
+      <c r="BF13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM13" s="33" t="n">
+      <c r="BM13" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN13" s="33" t="n">
+      <c r="BN13" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6089,181 +6079,181 @@
       <c r="G14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="39" t="n">
+      <c r="H14" s="38" t="n">
         <v>0.22</v>
       </c>
-      <c r="I14" s="33" t="n">
+      <c r="I14" s="32" t="n">
         <v>9.208</v>
       </c>
-      <c r="J14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="33" t="n">
+      <c r="J14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="32" t="n">
         <v>200</v>
       </c>
-      <c r="L14" s="33" t="n">
+      <c r="L14" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="M14" s="33" t="n">
+      <c r="M14" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="N14" s="33" t="n">
+      <c r="N14" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="O14" s="33" t="n">
+      <c r="O14" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="P14" s="33" t="n">
+      <c r="P14" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="33" t="n">
+      <c r="Q14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="32" t="n">
         <v>0.33</v>
       </c>
-      <c r="S14" s="33" t="n">
+      <c r="S14" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="T14" s="33" t="n">
+      <c r="T14" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="U14" s="33" t="n">
+      <c r="U14" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="V14" s="33" t="n">
+      <c r="V14" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="W14" s="33" t="n">
+      <c r="W14" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="X14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="33" t="n">
+      <c r="X14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AB14" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="33" t="n">
+      <c r="AB14" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AD14" s="33" t="n">
+      <c r="AD14" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AE14" s="33" t="n">
+      <c r="AE14" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AF14" s="33" t="n">
+      <c r="AF14" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="AG14" s="33" t="n">
+      <c r="AG14" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="AH14" s="33" t="n">
+      <c r="AH14" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AI14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="33" t="n">
+      <c r="AI14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="32" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL14" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="41" t="n">
+      <c r="AL14" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="AO14" s="41" t="n">
+      <c r="AO14" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AP14" s="33" t="n">
+      <c r="AP14" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AQ14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="33" t="n">
+      <c r="AQ14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="AT14" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="33" t="n">
+      <c r="AT14" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="AW14" s="33" t="n">
+      <c r="AW14" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="AX14" s="33" t="n">
+      <c r="AX14" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AY14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="33" t="n">
+      <c r="AY14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="BB14" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC14" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="41" t="n">
+      <c r="BB14" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="BE14" s="41" t="n">
+      <c r="BE14" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BF14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" s="33" t="n">
+      <c r="BF14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="BM14" s="33" t="n">
+      <c r="BM14" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="BN14" s="33" t="n">
+      <c r="BN14" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,82 +6300,82 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Y1" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="Z1" s="47" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6408,58 +6398,58 @@
       <c r="H2" s="0" t="n">
         <v>0.31</v>
       </c>
-      <c r="I2" s="49" t="n">
+      <c r="I2" s="48" t="n">
         <v>27.07395</v>
       </c>
-      <c r="J2" s="49" t="n">
+      <c r="J2" s="48" t="n">
         <v>9.364425</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="L2" s="30" t="n">
+      <c r="L2" s="29" t="n">
         <v>15.39825</v>
       </c>
-      <c r="M2" s="30" t="n">
+      <c r="M2" s="29" t="n">
         <v>7.026825</v>
       </c>
-      <c r="N2" s="30" t="n">
+      <c r="N2" s="29" t="n">
         <v>2.293575</v>
       </c>
-      <c r="O2" s="30" t="n">
+      <c r="O2" s="29" t="n">
         <v>1.2849</v>
       </c>
-      <c r="P2" s="30" t="n">
+      <c r="P2" s="29" t="n">
         <v>1.0704</v>
       </c>
-      <c r="Q2" s="30" t="n">
+      <c r="Q2" s="29" t="n">
         <v>3.7737</v>
       </c>
-      <c r="R2" s="30" t="n">
+      <c r="R2" s="29" t="n">
         <v>2.569575</v>
       </c>
-      <c r="S2" s="30" t="n">
+      <c r="S2" s="29" t="n">
         <v>1.16805</v>
       </c>
-      <c r="T2" s="30" t="n">
+      <c r="T2" s="29" t="n">
         <v>0.9771</v>
       </c>
-      <c r="U2" s="30" t="n">
+      <c r="U2" s="29" t="n">
         <v>0.876</v>
       </c>
-      <c r="V2" s="30" t="n">
+      <c r="V2" s="29" t="n">
         <v>9.29138128455786</v>
       </c>
-      <c r="W2" s="30" t="n">
+      <c r="W2" s="29" t="n">
         <v>11.7565551952553</v>
       </c>
-      <c r="X2" s="30" t="n">
+      <c r="X2" s="29" t="n">
         <v>13.8688073463808</v>
       </c>
-      <c r="Y2" s="30" t="n">
+      <c r="Y2" s="29" t="n">
         <v>14.1016335913936</v>
       </c>
-      <c r="Z2" s="30" t="n">
+      <c r="Z2" s="29" t="n">
         <v>13.1917776992637</v>
       </c>
     </row>
@@ -6550,8 +6540,8 @@
   </sheetPr>
   <dimension ref="A1:BZ13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BU1" activeCellId="0" sqref="BU1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BI2" activeCellId="0" sqref="BI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6564,8 +6554,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="29" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="29" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="28" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.43"/>
@@ -6583,18 +6573,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="4.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="29" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="29" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="30" style="29" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="29" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="28" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="28" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="30" style="28" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="28" width="17.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="29" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="28" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="29" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="29" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="28" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="28" width="17.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="60" style="1" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="29" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="29" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="28" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="28" width="17.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="15.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="15.28"/>
@@ -6611,235 +6601,235 @@
       <c r="A1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="W1" s="54" t="s">
+      <c r="W1" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="Y1" s="54" t="s">
+      <c r="Y1" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="Z1" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AA1" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="AB1" s="48" t="s">
+      <c r="AB1" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AD1" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="AE1" s="57" t="s">
+      <c r="AE1" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="AF1" s="58" t="s">
+      <c r="AF1" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="AG1" s="59" t="s">
+      <c r="AG1" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="AH1" s="56" t="s">
+      <c r="AH1" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="AI1" s="57" t="s">
+      <c r="AI1" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="AJ1" s="58" t="s">
+      <c r="AJ1" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="AK1" s="59" t="s">
+      <c r="AK1" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="AL1" s="56" t="s">
+      <c r="AL1" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AM1" s="57" t="s">
+      <c r="AM1" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="AN1" s="58" t="s">
+      <c r="AN1" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="AO1" s="59" t="s">
+      <c r="AO1" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="AP1" s="56" t="s">
+      <c r="AP1" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AQ1" s="57" t="s">
+      <c r="AQ1" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="AR1" s="58" t="s">
+      <c r="AR1" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="AS1" s="59" t="s">
+      <c r="AS1" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="AU1" s="57" t="s">
+      <c r="AU1" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="AV1" s="58" t="s">
+      <c r="AV1" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="AW1" s="59" t="s">
+      <c r="AW1" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="AX1" s="56" t="s">
+      <c r="AX1" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="AY1" s="57" t="s">
+      <c r="AY1" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="AZ1" s="58" t="s">
+      <c r="AZ1" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="BA1" s="59" t="s">
+      <c r="BA1" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="BB1" s="48" t="s">
+      <c r="BB1" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="BC1" s="48" t="s">
+      <c r="BC1" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="BD1" s="55" t="s">
+      <c r="BD1" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="BE1" s="60" t="s">
+      <c r="BE1" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="BF1" s="60" t="s">
+      <c r="BF1" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="BG1" s="60" t="s">
+      <c r="BG1" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="BH1" s="61" t="s">
+      <c r="BH1" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="BI1" s="62" t="s">
+      <c r="BI1" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="BJ1" s="63" t="s">
+      <c r="BJ1" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="BK1" s="63" t="s">
+      <c r="BK1" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="BL1" s="60" t="s">
+      <c r="BL1" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="BM1" s="60" t="s">
+      <c r="BM1" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="BN1" s="61" t="s">
+      <c r="BN1" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="BO1" s="64" t="s">
+      <c r="BO1" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="BP1" s="64" t="s">
+      <c r="BP1" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="BQ1" s="65" t="s">
+      <c r="BQ1" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="BR1" s="66" t="s">
+      <c r="BR1" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="BS1" s="67" t="s">
+      <c r="BS1" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="BT1" s="68" t="s">
+      <c r="BT1" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="BU1" s="69" t="s">
+      <c r="BU1" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="BV1" s="54" t="s">
+      <c r="BV1" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="BW1" s="54" t="s">
+      <c r="BW1" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="BX1" s="54" t="s">
+      <c r="BX1" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="BY1" s="54" t="s">
+      <c r="BY1" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="BZ1" s="70" t="s">
+      <c r="BZ1" s="69" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6917,7 +6907,7 @@
       <c r="AA2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AB2" s="29" t="n">
+      <c r="AB2" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC2" s="15" t="n">
@@ -6947,7 +6937,7 @@
       <c r="AY2" s="15"/>
       <c r="AZ2" s="0"/>
       <c r="BA2" s="15"/>
-      <c r="BB2" s="29" t="n">
+      <c r="BB2" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC2" s="1" t="n">
@@ -6959,10 +6949,10 @@
       <c r="BE2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF2" s="29" t="n">
+      <c r="BF2" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG2" s="29" t="n">
+      <c r="BG2" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH2" s="15"/>
@@ -6976,37 +6966,37 @@
       <c r="BN2" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO2" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="29" t="n">
+      <c r="BO2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ2" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR2" s="29" t="n">
+      <c r="BR2" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS2" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT2" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="29"/>
+      <c r="BT2" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="28"/>
       <c r="BZ2" s="15" t="n">
         <v>0</v>
       </c>
@@ -7085,7 +7075,7 @@
       <c r="AA3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AB3" s="29" t="n">
+      <c r="AB3" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC3" s="15" t="n">
@@ -7115,7 +7105,7 @@
       <c r="AY3" s="15"/>
       <c r="AZ3" s="0"/>
       <c r="BA3" s="15"/>
-      <c r="BB3" s="29" t="n">
+      <c r="BB3" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC3" s="1" t="n">
@@ -7127,10 +7117,10 @@
       <c r="BE3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF3" s="29" t="n">
+      <c r="BF3" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG3" s="29" t="n">
+      <c r="BG3" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH3" s="15"/>
@@ -7144,37 +7134,37 @@
       <c r="BN3" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="29" t="n">
+      <c r="BO3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ3" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR3" s="29" t="n">
+      <c r="BR3" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS3" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT3" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="29"/>
+      <c r="BT3" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="28"/>
       <c r="BZ3" s="15" t="n">
         <v>0</v>
       </c>
@@ -7204,10 +7194,10 @@
       <c r="H4" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="32" t="n">
+      <c r="I4" s="31" t="n">
         <v>110</v>
       </c>
-      <c r="J4" s="32" t="n">
+      <c r="J4" s="31" t="n">
         <v>5</v>
       </c>
       <c r="K4" s="15" t="n">
@@ -7216,7 +7206,7 @@
       <c r="L4" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="M4" s="29" t="n">
+      <c r="M4" s="28" t="n">
         <v>15</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -7258,10 +7248,10 @@
       <c r="Z4" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AA4" s="32" t="n">
+      <c r="AA4" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB4" s="29" t="n">
+      <c r="AB4" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC4" s="15" t="n">
@@ -7291,7 +7281,7 @@
       <c r="AY4" s="15"/>
       <c r="AZ4" s="0"/>
       <c r="BA4" s="15"/>
-      <c r="BB4" s="29" t="n">
+      <c r="BB4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC4" s="1" t="n">
@@ -7303,10 +7293,10 @@
       <c r="BE4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF4" s="29" t="n">
+      <c r="BF4" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG4" s="29" t="n">
+      <c r="BG4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH4" s="15" t="n">
@@ -7318,7 +7308,7 @@
       <c r="BJ4" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="BK4" s="29" t="n">
+      <c r="BK4" s="28" t="n">
         <v>220</v>
       </c>
       <c r="BL4" s="1" t="n">
@@ -7330,46 +7320,46 @@
       <c r="BN4" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP4" s="29" t="n">
+      <c r="BO4" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ4" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR4" s="29" t="n">
+      <c r="BR4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS4" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT4" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="29"/>
+      <c r="BT4" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="28"/>
       <c r="BZ4" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="29" t="n">
+      <c r="B5" s="28" t="n">
         <v>73</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -7390,10 +7380,10 @@
       <c r="H5" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I5" s="29" t="n">
+      <c r="I5" s="28" t="n">
         <v>73</v>
       </c>
-      <c r="J5" s="32" t="n">
+      <c r="J5" s="31" t="n">
         <v>5</v>
       </c>
       <c r="K5" s="15" t="n">
@@ -7444,43 +7434,43 @@
       <c r="Z5" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AA5" s="32" t="n">
+      <c r="AA5" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB5" s="29" t="n">
+      <c r="AB5" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC5" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AD5" s="29" t="n">
+      <c r="AD5" s="28" t="n">
         <v>156</v>
       </c>
-      <c r="AE5" s="29" t="n">
+      <c r="AE5" s="28" t="n">
         <v>25</v>
       </c>
-      <c r="AF5" s="29" t="n">
+      <c r="AF5" s="28" t="n">
         <v>164</v>
       </c>
-      <c r="AG5" s="29" t="n">
+      <c r="AG5" s="28" t="n">
         <v>25</v>
       </c>
-      <c r="AH5" s="29" t="n">
+      <c r="AH5" s="28" t="n">
         <v>172</v>
       </c>
-      <c r="AI5" s="29" t="n">
+      <c r="AI5" s="28" t="n">
         <v>25</v>
       </c>
-      <c r="AJ5" s="29" t="n">
+      <c r="AJ5" s="28" t="n">
         <v>180</v>
       </c>
-      <c r="AK5" s="29" t="n">
+      <c r="AK5" s="28" t="n">
         <v>25</v>
       </c>
-      <c r="AL5" s="29" t="n">
+      <c r="AL5" s="28" t="n">
         <v>185</v>
       </c>
-      <c r="AM5" s="29" t="n">
+      <c r="AM5" s="28" t="n">
         <v>25</v>
       </c>
       <c r="AN5" s="0"/>
@@ -7497,7 +7487,7 @@
       <c r="AY5" s="15"/>
       <c r="AZ5" s="0"/>
       <c r="BA5" s="15"/>
-      <c r="BB5" s="29" t="n">
+      <c r="BB5" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC5" s="1" t="n">
@@ -7509,10 +7499,10 @@
       <c r="BE5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF5" s="29" t="n">
+      <c r="BF5" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG5" s="29" t="n">
+      <c r="BG5" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH5" s="15" t="n">
@@ -7524,7 +7514,7 @@
       <c r="BJ5" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="BK5" s="29" t="n">
+      <c r="BK5" s="28" t="n">
         <v>220</v>
       </c>
       <c r="BL5" s="1" t="n">
@@ -7536,37 +7526,37 @@
       <c r="BN5" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="29" t="n">
+      <c r="BO5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ5" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR5" s="29" t="n">
+      <c r="BR5" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS5" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="29"/>
+      <c r="BT5" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="28"/>
       <c r="BZ5" s="15" t="n">
         <v>0</v>
       </c>
@@ -7597,11 +7587,11 @@
       <c r="H6" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I6" s="29" t="n">
+      <c r="I6" s="28" t="n">
         <f aca="false">L6-30</f>
         <v>82</v>
       </c>
-      <c r="J6" s="32" t="n">
+      <c r="J6" s="31" t="n">
         <v>5</v>
       </c>
       <c r="K6" s="15" t="n">
@@ -7652,88 +7642,88 @@
       <c r="Z6" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AA6" s="32" t="n">
+      <c r="AA6" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB6" s="29" t="n">
+      <c r="AB6" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AD6" s="29" t="n">
+      <c r="AD6" s="28" t="n">
         <v>182</v>
       </c>
-      <c r="AE6" s="29" t="n">
+      <c r="AE6" s="28" t="n">
         <v>23.5</v>
       </c>
-      <c r="AF6" s="29" t="n">
+      <c r="AF6" s="28" t="n">
         <v>182</v>
       </c>
-      <c r="AG6" s="29" t="n">
+      <c r="AG6" s="28" t="n">
         <v>23.5</v>
       </c>
-      <c r="AH6" s="29" t="n">
+      <c r="AH6" s="28" t="n">
         <v>188</v>
       </c>
-      <c r="AI6" s="29" t="n">
+      <c r="AI6" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="AJ6" s="29" t="n">
+      <c r="AJ6" s="28" t="n">
         <v>193</v>
       </c>
-      <c r="AK6" s="29" t="n">
+      <c r="AK6" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AL6" s="29" t="n">
+      <c r="AL6" s="28" t="n">
         <v>193</v>
       </c>
-      <c r="AM6" s="29" t="n">
+      <c r="AM6" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AN6" s="29" t="n">
+      <c r="AN6" s="28" t="n">
         <v>199</v>
       </c>
-      <c r="AO6" s="29" t="n">
+      <c r="AO6" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AP6" s="29" t="n">
+      <c r="AP6" s="28" t="n">
         <v>203</v>
       </c>
-      <c r="AQ6" s="29" t="n">
+      <c r="AQ6" s="28" t="n">
         <v>34</v>
       </c>
-      <c r="AR6" s="29" t="n">
+      <c r="AR6" s="28" t="n">
         <v>203</v>
       </c>
-      <c r="AS6" s="29" t="n">
+      <c r="AS6" s="28" t="n">
         <v>34</v>
       </c>
-      <c r="AT6" s="29" t="n">
+      <c r="AT6" s="28" t="n">
         <v>216</v>
       </c>
-      <c r="AU6" s="29" t="n">
+      <c r="AU6" s="28" t="n">
         <v>35</v>
       </c>
-      <c r="AV6" s="29" t="n">
+      <c r="AV6" s="28" t="n">
         <v>225</v>
       </c>
-      <c r="AW6" s="29" t="n">
+      <c r="AW6" s="28" t="n">
         <v>17</v>
       </c>
-      <c r="AX6" s="29" t="n">
+      <c r="AX6" s="28" t="n">
         <v>225</v>
       </c>
-      <c r="AY6" s="29" t="n">
+      <c r="AY6" s="28" t="n">
         <v>17</v>
       </c>
-      <c r="AZ6" s="29" t="n">
+      <c r="AZ6" s="28" t="n">
         <v>244</v>
       </c>
-      <c r="BA6" s="29" t="n">
+      <c r="BA6" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="BB6" s="29" t="n">
+      <c r="BB6" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC6" s="1" t="n">
@@ -7745,10 +7735,10 @@
       <c r="BE6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF6" s="29" t="n">
+      <c r="BF6" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG6" s="29" t="n">
+      <c r="BG6" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH6" s="15" t="n">
@@ -7760,7 +7750,7 @@
       <c r="BJ6" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="BK6" s="29" t="n">
+      <c r="BK6" s="28" t="n">
         <v>220</v>
       </c>
       <c r="BL6" s="1" t="n">
@@ -7772,37 +7762,37 @@
       <c r="BN6" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="29" t="n">
+      <c r="BO6" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ6" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR6" s="29" t="n">
+      <c r="BR6" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS6" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="29"/>
+      <c r="BT6" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="28"/>
       <c r="BZ6" s="15" t="n">
         <v>0</v>
       </c>
@@ -7833,11 +7823,11 @@
       <c r="H7" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I7" s="29" t="n">
+      <c r="I7" s="28" t="n">
         <f aca="false">L7-30</f>
         <v>82</v>
       </c>
-      <c r="J7" s="32" t="n">
+      <c r="J7" s="31" t="n">
         <v>5</v>
       </c>
       <c r="K7" s="15" t="n">
@@ -7888,10 +7878,10 @@
       <c r="Z7" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AA7" s="32" t="n">
+      <c r="AA7" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB7" s="29" t="n">
+      <c r="AB7" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC7" s="15" t="n">
@@ -7909,7 +7899,7 @@
       <c r="AW7" s="15"/>
       <c r="AY7" s="15"/>
       <c r="BA7" s="15"/>
-      <c r="BB7" s="29" t="n">
+      <c r="BB7" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC7" s="1" t="n">
@@ -7921,10 +7911,10 @@
       <c r="BE7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF7" s="29" t="n">
+      <c r="BF7" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG7" s="29" t="n">
+      <c r="BG7" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH7" s="15" t="n">
@@ -7936,7 +7926,7 @@
       <c r="BJ7" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="BK7" s="29" t="n">
+      <c r="BK7" s="28" t="n">
         <v>220</v>
       </c>
       <c r="BL7" s="1" t="n">
@@ -7948,37 +7938,37 @@
       <c r="BN7" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="29" t="n">
+      <c r="BO7" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ7" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR7" s="29" t="n">
+      <c r="BR7" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS7" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT7" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="29"/>
+      <c r="BT7" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="28"/>
       <c r="BZ7" s="15" t="n">
         <v>0</v>
       </c>
@@ -8009,11 +7999,11 @@
       <c r="H8" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I8" s="29" t="n">
+      <c r="I8" s="28" t="n">
         <f aca="false">L8-30</f>
         <v>70</v>
       </c>
-      <c r="J8" s="32" t="n">
+      <c r="J8" s="31" t="n">
         <v>5</v>
       </c>
       <c r="K8" s="15" t="n">
@@ -8064,10 +8054,10 @@
       <c r="Z8" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AA8" s="32" t="n">
+      <c r="AA8" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB8" s="29" t="n">
+      <c r="AB8" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC8" s="15" t="n">
@@ -8085,7 +8075,7 @@
       <c r="AW8" s="15"/>
       <c r="AY8" s="15"/>
       <c r="BA8" s="15"/>
-      <c r="BB8" s="29" t="n">
+      <c r="BB8" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC8" s="1" t="n">
@@ -8097,10 +8087,10 @@
       <c r="BE8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF8" s="29" t="n">
+      <c r="BF8" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG8" s="29" t="n">
+      <c r="BG8" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH8" s="15" t="n">
@@ -8112,7 +8102,7 @@
       <c r="BJ8" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="BK8" s="29" t="n">
+      <c r="BK8" s="28" t="n">
         <v>220</v>
       </c>
       <c r="BL8" s="1" t="n">
@@ -8124,43 +8114,43 @@
       <c r="BN8" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="29" t="n">
+      <c r="BO8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ8" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR8" s="29" t="n">
+      <c r="BR8" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS8" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT8" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="29"/>
+      <c r="BT8" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="28"/>
       <c r="BZ8" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -8185,11 +8175,11 @@
       <c r="H9" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="29" t="n">
+      <c r="I9" s="28" t="n">
         <f aca="false">L9-30</f>
         <v>81</v>
       </c>
-      <c r="J9" s="32" t="n">
+      <c r="J9" s="31" t="n">
         <v>5</v>
       </c>
       <c r="K9" s="15" t="n">
@@ -8240,10 +8230,10 @@
       <c r="Z9" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AA9" s="32" t="n">
+      <c r="AA9" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB9" s="29" t="n">
+      <c r="AB9" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC9" s="15" t="n">
@@ -8261,7 +8251,7 @@
       <c r="AW9" s="15"/>
       <c r="AY9" s="15"/>
       <c r="BA9" s="15"/>
-      <c r="BB9" s="29" t="n">
+      <c r="BB9" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC9" s="1" t="n">
@@ -8273,10 +8263,10 @@
       <c r="BE9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF9" s="29" t="n">
+      <c r="BF9" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG9" s="29" t="n">
+      <c r="BG9" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH9" s="15" t="n">
@@ -8288,7 +8278,7 @@
       <c r="BJ9" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="BK9" s="29" t="n">
+      <c r="BK9" s="28" t="n">
         <v>220</v>
       </c>
       <c r="BL9" s="1" t="n">
@@ -8300,43 +8290,43 @@
       <c r="BN9" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP9" s="29" t="n">
+      <c r="BO9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ9" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR9" s="29" t="n">
+      <c r="BR9" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS9" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT9" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU9" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW9" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="29"/>
+      <c r="BT9" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="28"/>
       <c r="BZ9" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -8361,11 +8351,11 @@
       <c r="H10" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I10" s="29" t="n">
+      <c r="I10" s="28" t="n">
         <f aca="false">L10-30</f>
         <v>100</v>
       </c>
-      <c r="J10" s="32" t="n">
+      <c r="J10" s="31" t="n">
         <v>5</v>
       </c>
       <c r="K10" s="15" t="n">
@@ -8416,22 +8406,22 @@
       <c r="Z10" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AA10" s="32" t="n">
+      <c r="AA10" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB10" s="29" t="n">
+      <c r="AB10" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC10" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AD10" s="29" t="n">
+      <c r="AD10" s="28" t="n">
         <v>203</v>
       </c>
       <c r="AE10" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="AF10" s="29" t="n">
+      <c r="AF10" s="28" t="n">
         <v>223</v>
       </c>
       <c r="AG10" s="15" t="n">
@@ -8447,7 +8437,7 @@
       <c r="AW10" s="15"/>
       <c r="AY10" s="15"/>
       <c r="BA10" s="15"/>
-      <c r="BB10" s="29" t="n">
+      <c r="BB10" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC10" s="1" t="n">
@@ -8459,10 +8449,10 @@
       <c r="BE10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF10" s="29" t="n">
+      <c r="BF10" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG10" s="29" t="n">
+      <c r="BG10" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH10" s="15" t="n">
@@ -8474,7 +8464,7 @@
       <c r="BJ10" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="BK10" s="29" t="n">
+      <c r="BK10" s="28" t="n">
         <v>220</v>
       </c>
       <c r="BL10" s="1" t="n">
@@ -8486,43 +8476,43 @@
       <c r="BN10" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO10" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP10" s="29" t="n">
+      <c r="BO10" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ10" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR10" s="29" t="n">
+      <c r="BR10" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS10" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT10" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU10" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV10" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW10" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="29"/>
+      <c r="BT10" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV10" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="28"/>
       <c r="BZ10" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -8547,11 +8537,11 @@
       <c r="H11" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I11" s="29" t="n">
+      <c r="I11" s="28" t="n">
         <f aca="false">L11-30</f>
         <v>100</v>
       </c>
-      <c r="J11" s="32" t="n">
+      <c r="J11" s="31" t="n">
         <v>5</v>
       </c>
       <c r="K11" s="15" t="n">
@@ -8602,10 +8592,10 @@
       <c r="Z11" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AA11" s="32" t="n">
+      <c r="AA11" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB11" s="29" t="n">
+      <c r="AB11" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC11" s="15" t="n">
@@ -8623,7 +8613,7 @@
       <c r="AW11" s="15"/>
       <c r="AY11" s="15"/>
       <c r="BA11" s="15"/>
-      <c r="BB11" s="29" t="n">
+      <c r="BB11" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC11" s="1" t="n">
@@ -8635,10 +8625,10 @@
       <c r="BE11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF11" s="29" t="n">
+      <c r="BF11" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG11" s="29" t="n">
+      <c r="BG11" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH11" s="15" t="n">
@@ -8650,7 +8640,7 @@
       <c r="BJ11" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="BK11" s="29" t="n">
+      <c r="BK11" s="28" t="n">
         <v>220</v>
       </c>
       <c r="BL11" s="1" t="n">
@@ -8662,43 +8652,43 @@
       <c r="BN11" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO11" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP11" s="29" t="n">
+      <c r="BO11" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ11" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR11" s="29" t="n">
+      <c r="BR11" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS11" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT11" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV11" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="29"/>
+      <c r="BT11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="28"/>
       <c r="BZ11" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -8723,26 +8713,26 @@
       <c r="H12" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I12" s="29" t="n">
+      <c r="I12" s="28" t="n">
         <f aca="false">L12-30</f>
         <v>92</v>
       </c>
-      <c r="J12" s="32" t="n">
+      <c r="J12" s="31" t="n">
         <v>5</v>
       </c>
       <c r="K12" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="L12" s="32" t="n">
+      <c r="L12" s="31" t="n">
         <v>122</v>
       </c>
-      <c r="M12" s="32" t="n">
+      <c r="M12" s="31" t="n">
         <v>15</v>
       </c>
-      <c r="N12" s="32" t="n">
+      <c r="N12" s="31" t="n">
         <v>3.185</v>
       </c>
-      <c r="O12" s="32" t="n">
+      <c r="O12" s="31" t="n">
         <v>1</v>
       </c>
       <c r="P12" s="0" t="n">
@@ -8781,7 +8771,7 @@
       <c r="AA12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AB12" s="29" t="n">
+      <c r="AB12" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC12" s="15" t="n">
@@ -8799,7 +8789,7 @@
       <c r="AW12" s="15"/>
       <c r="AY12" s="15"/>
       <c r="BA12" s="15"/>
-      <c r="BB12" s="29" t="n">
+      <c r="BB12" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC12" s="1" t="n">
@@ -8811,10 +8801,10 @@
       <c r="BE12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF12" s="29" t="n">
+      <c r="BF12" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG12" s="29" t="n">
+      <c r="BG12" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH12" s="15" t="n">
@@ -8826,7 +8816,7 @@
       <c r="BJ12" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="BK12" s="29" t="n">
+      <c r="BK12" s="28" t="n">
         <v>220</v>
       </c>
       <c r="BL12" s="1" t="n">
@@ -8838,43 +8828,43 @@
       <c r="BN12" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO12" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP12" s="29" t="n">
+      <c r="BO12" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ12" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR12" s="29" t="n">
+      <c r="BR12" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS12" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT12" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU12" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV12" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW12" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX12" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="29"/>
+      <c r="BT12" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="28"/>
       <c r="BZ12" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -8899,25 +8889,25 @@
       <c r="H13" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I13" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="32" t="n">
+      <c r="I13" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31" t="n">
         <v>5</v>
       </c>
       <c r="K13" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="L13" s="32" t="n">
+      <c r="L13" s="31" t="n">
         <v>112</v>
       </c>
-      <c r="M13" s="32" t="n">
+      <c r="M13" s="31" t="n">
         <v>15</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>3.7</v>
       </c>
-      <c r="O13" s="32" t="n">
+      <c r="O13" s="31" t="n">
         <v>1</v>
       </c>
       <c r="P13" s="0" t="n">
@@ -8956,7 +8946,7 @@
       <c r="AA13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AB13" s="29" t="n">
+      <c r="AB13" s="28" t="n">
         <v>2</v>
       </c>
       <c r="AC13" s="15" t="n">
@@ -8974,7 +8964,7 @@
       <c r="AW13" s="15"/>
       <c r="AY13" s="15"/>
       <c r="BA13" s="15"/>
-      <c r="BB13" s="29" t="n">
+      <c r="BB13" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BC13" s="1" t="n">
@@ -8986,10 +8976,10 @@
       <c r="BE13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF13" s="29" t="n">
+      <c r="BF13" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="BG13" s="29" t="n">
+      <c r="BG13" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BH13" s="15" t="n">
@@ -9001,7 +8991,7 @@
       <c r="BJ13" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="BK13" s="29" t="n">
+      <c r="BK13" s="28" t="n">
         <v>220</v>
       </c>
       <c r="BL13" s="1" t="n">
@@ -9013,37 +9003,37 @@
       <c r="BN13" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="BO13" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP13" s="29" t="n">
+      <c r="BO13" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BQ13" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="BR13" s="29" t="n">
+      <c r="BR13" s="28" t="n">
         <v>1</v>
       </c>
       <c r="BS13" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="BT13" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU13" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV13" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW13" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" s="29"/>
+      <c r="BT13" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV13" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW13" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="28"/>
       <c r="BZ13" s="15" t="n">
         <v>0</v>
       </c>
@@ -9066,8 +9056,8 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9105,138 +9095,138 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="33" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="71" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="70" width="9.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="0" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="T1" s="72" t="s">
+      <c r="T1" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="U1" s="72" t="s">
+      <c r="U1" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="V1" s="72" t="s">
+      <c r="V1" s="71" t="s">
         <v>292</v>
       </c>
-      <c r="W1" s="72" t="s">
+      <c r="W1" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="X1" s="72" t="s">
+      <c r="X1" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="Y1" s="72" t="s">
+      <c r="Y1" s="71" t="s">
         <v>295</v>
       </c>
-      <c r="Z1" s="73" t="s">
+      <c r="Z1" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="AA1" s="50" t="s">
+      <c r="AA1" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="AB1" s="50" t="s">
+      <c r="AB1" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="AC1" s="50" t="s">
+      <c r="AC1" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="AD1" s="50" t="s">
+      <c r="AD1" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="AE1" s="50" t="s">
+      <c r="AE1" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="AG1" s="74" t="s">
+      <c r="AG1" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="AH1" s="74" t="s">
+      <c r="AH1" s="73" t="s">
         <v>304</v>
       </c>
-      <c r="AI1" s="74" t="s">
+      <c r="AI1" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="AJ1" s="74" t="s">
+      <c r="AJ1" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="AK1" s="74" t="s">
+      <c r="AK1" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="AL1" s="74" t="s">
+      <c r="AL1" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="AM1" s="74" t="s">
+      <c r="AM1" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="AN1" s="74" t="s">
+      <c r="AN1" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="AO1" s="74" t="s">
+      <c r="AO1" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="AP1" s="74" t="s">
+      <c r="AP1" s="73" t="s">
         <v>312</v>
       </c>
-      <c r="AQ1" s="75" t="s">
+      <c r="AQ1" s="74" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9244,7 +9234,7 @@
       <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="49" t="n">
+      <c r="B2" s="48" t="n">
         <v>2.5</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -9259,79 +9249,79 @@
       <c r="F2" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="G2" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="29" t="n">
+      <c r="G2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="28" t="n">
         <v>1.25</v>
       </c>
-      <c r="I2" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="29" t="n">
+      <c r="I2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="28" t="n">
         <v>440</v>
       </c>
-      <c r="L2" s="29" t="n">
+      <c r="L2" s="28" t="n">
         <v>800</v>
       </c>
-      <c r="M2" s="29" t="n">
+      <c r="M2" s="28" t="n">
         <v>-0.5</v>
       </c>
-      <c r="N2" s="29" t="n">
+      <c r="N2" s="28" t="n">
         <v>-0.55</v>
       </c>
-      <c r="O2" s="29" t="n">
+      <c r="O2" s="28" t="n">
         <v>500</v>
       </c>
-      <c r="P2" s="29" t="n">
+      <c r="P2" s="28" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q2" s="29" t="n">
+      <c r="Q2" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="R2" s="29" t="n">
+      <c r="R2" s="28" t="n">
         <v>1</v>
       </c>
       <c r="S2" s="15" t="n">
         <v>-1.4</v>
       </c>
-      <c r="T2" s="29" t="n">
+      <c r="T2" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="U2" s="29" t="n">
+      <c r="U2" s="28" t="n">
         <v>0.23</v>
       </c>
-      <c r="V2" s="29" t="n">
+      <c r="V2" s="28" t="n">
         <v>0.18</v>
       </c>
-      <c r="W2" s="29" t="n">
+      <c r="W2" s="28" t="n">
         <v>0.62</v>
       </c>
-      <c r="X2" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="29" t="n">
+      <c r="X2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="28" t="n">
         <v>1</v>
       </c>
       <c r="Z2" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AA2" s="29" t="n">
+      <c r="AA2" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="AB2" s="29" t="n">
+      <c r="AB2" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="AC2" s="29" t="n">
+      <c r="AC2" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD2" s="29" t="n">
+      <c r="AD2" s="28" t="n">
         <v>0.16</v>
       </c>
-      <c r="AE2" s="29" t="n">
+      <c r="AE2" s="28" t="n">
         <v>0.004</v>
       </c>
       <c r="AF2" s="15" t="n">
@@ -9367,7 +9357,7 @@
       <c r="AP2" s="0" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AQ2" s="71" t="n">
+      <c r="AQ2" s="70" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -9413,43 +9403,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="76" t="s">
         <v>316</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="77" t="s">
         <v>317</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="78" t="s">
         <v>321</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="M1" s="79" t="s">
         <v>322</v>
       </c>
       <c r="N1" s="0" t="s">
@@ -9502,7 +9492,7 @@
       <c r="M2" s="15" t="n">
         <v>405</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="75" t="s">
         <v>315</v>
       </c>
       <c r="P2" s="0" t="s">
@@ -9549,7 +9539,7 @@
       <c r="M3" s="15" t="n">
         <v>405</v>
       </c>
-      <c r="O3" s="77" t="s">
+      <c r="O3" s="76" t="s">
         <v>316</v>
       </c>
       <c r="P3" s="0" t="s">
@@ -9596,7 +9586,7 @@
       <c r="M4" s="15" t="n">
         <v>405</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>317</v>
       </c>
       <c r="P4" s="0" t="s">
@@ -9643,7 +9633,7 @@
       <c r="M5" s="15" t="n">
         <v>405</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="55" t="s">
         <v>319</v>
       </c>
       <c r="P5" s="0" t="s">
@@ -9690,7 +9680,7 @@
       <c r="M6" s="15" t="n">
         <v>405</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="55" t="s">
         <v>318</v>
       </c>
       <c r="P6" s="0" t="s">
@@ -9737,7 +9727,7 @@
       <c r="M7" s="15" t="n">
         <v>405</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="53" t="s">
         <v>320</v>
       </c>
       <c r="P7" s="0" t="s">
@@ -9784,7 +9774,7 @@
       <c r="M8" s="15" t="n">
         <v>405</v>
       </c>
-      <c r="O8" s="79" t="s">
+      <c r="O8" s="78" t="s">
         <v>321</v>
       </c>
       <c r="P8" s="0" t="s">
@@ -9831,7 +9821,7 @@
       <c r="M9" s="15" t="n">
         <v>405</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="79" t="s">
         <v>322</v>
       </c>
       <c r="P9" s="0" t="s">

--- a/inst/extdata/xl/V10.0/inputs_stics_example.xlsx
+++ b/inst/extdata/xl/V10.0/inputs_stics_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USMs" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="337">
   <si>
     <t xml:space="preserve">usm_name</t>
   </si>
@@ -202,16 +202,19 @@
     <t xml:space="preserve">lai0_Crop1</t>
   </si>
   <si>
+    <t xml:space="preserve">magrain0_Crop1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zrac0_Crop1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code_acti_reserve_Crop1</t>
+  </si>
+  <si>
     <t xml:space="preserve">masec0_Crop1</t>
   </si>
   <si>
     <t xml:space="preserve">QNplante0_Crop1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magrain0_Crop1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zrac0_Crop1</t>
   </si>
   <si>
     <t xml:space="preserve">restemp0_Crop1</t>
@@ -2394,36 +2397,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="25" style="0" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1013" min="30" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1014" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="21" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="31" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -2448,10 +2452,10 @@
       <c r="H1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="11" t="s">
         <v>63</v>
       </c>
       <c r="K1" s="20" t="s">
@@ -2463,10 +2467,10 @@
       <c r="M1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>68</v>
       </c>
       <c r="P1" s="22" t="s">
@@ -2478,10 +2482,10 @@
       <c r="R1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="23" t="s">
         <v>73</v>
       </c>
       <c r="U1" s="24" t="s">
@@ -2493,10 +2497,10 @@
       <c r="W1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="2" t="s">
         <v>78</v>
       </c>
       <c r="Z1" s="25" t="s">
@@ -2508,11 +2512,14 @@
       <c r="AB1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD1" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2520,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -2532,15 +2539,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="28" t="n">
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="28" t="n">
@@ -2552,65 +2559,68 @@
       <c r="M2" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="29" t="n">
+      <c r="N2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="29" t="n">
         <v>12.2498236911716</v>
       </c>
-      <c r="P2" s="29" t="n">
+      <c r="Q2" s="29" t="n">
         <v>11.4051209137012</v>
       </c>
-      <c r="Q2" s="29" t="n">
+      <c r="R2" s="29" t="n">
         <v>12.403574703501</v>
       </c>
-      <c r="R2" s="29" t="n">
+      <c r="S2" s="29" t="n">
         <v>14.0741405718364</v>
       </c>
-      <c r="S2" s="30" t="n">
+      <c r="T2" s="30" t="n">
         <v>12.5736108922922</v>
       </c>
-      <c r="T2" s="29" t="n">
+      <c r="U2" s="29" t="n">
         <v>43.322</v>
       </c>
-      <c r="U2" s="29" t="n">
+      <c r="V2" s="29" t="n">
         <v>6.1706</v>
       </c>
-      <c r="V2" s="29" t="n">
+      <c r="W2" s="29" t="n">
         <v>2.0362</v>
       </c>
-      <c r="W2" s="29" t="n">
+      <c r="X2" s="29" t="n">
         <v>1.1692</v>
       </c>
-      <c r="X2" s="30" t="n">
+      <c r="Y2" s="30" t="n">
         <v>2.031</v>
       </c>
-      <c r="Y2" s="29" t="n">
+      <c r="Z2" s="29" t="n">
         <v>2.5564</v>
       </c>
-      <c r="Z2" s="29" t="n">
+      <c r="AA2" s="29" t="n">
         <v>2.1078</v>
       </c>
-      <c r="AA2" s="29" t="n">
+      <c r="AB2" s="29" t="n">
         <v>1.3432</v>
       </c>
-      <c r="AB2" s="29" t="n">
+      <c r="AC2" s="29" t="n">
         <v>1.0428</v>
       </c>
-      <c r="AC2" s="30" t="n">
+      <c r="AD2" s="30" t="n">
         <v>1.0587</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>83</v>
-      </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
@@ -2621,15 +2631,15 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="28" t="n">
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="28" t="n">
@@ -2641,64 +2651,67 @@
       <c r="M3" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="31" t="n">
+      <c r="N3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="31" t="n">
         <v>20.5</v>
       </c>
-      <c r="P3" s="31" t="n">
+      <c r="Q3" s="31" t="n">
         <v>20.4</v>
       </c>
-      <c r="Q3" s="31" t="n">
+      <c r="R3" s="31" t="n">
         <v>21.2</v>
       </c>
-      <c r="R3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="28" t="n">
+      <c r="S3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="28" t="n">
         <v>38.1</v>
       </c>
-      <c r="U3" s="28" t="n">
+      <c r="V3" s="28" t="n">
         <v>27.1</v>
       </c>
-      <c r="V3" s="28" t="n">
+      <c r="W3" s="28" t="n">
         <v>23.8</v>
       </c>
-      <c r="W3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="28" t="n">
-        <v>1.8</v>
+      <c r="X3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Z3" s="28" t="n">
         <v>1.8</v>
       </c>
       <c r="AA3" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB3" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="AB3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="15" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -2710,15 +2723,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="28" t="n">
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="28" t="n">
@@ -2730,56 +2743,59 @@
       <c r="M4" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="31" t="n">
+      <c r="N4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="31" t="n">
         <v>26</v>
       </c>
-      <c r="P4" s="31" t="n">
+      <c r="Q4" s="31" t="n">
         <v>21.7</v>
       </c>
-      <c r="Q4" s="31" t="n">
+      <c r="R4" s="31" t="n">
         <v>22.4</v>
       </c>
-      <c r="R4" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="28" t="n">
+      <c r="S4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="28" t="n">
         <v>3.8</v>
       </c>
-      <c r="U4" s="28" t="n">
+      <c r="V4" s="28" t="n">
         <v>13.3</v>
       </c>
-      <c r="V4" s="28" t="n">
+      <c r="W4" s="28" t="n">
         <v>11</v>
       </c>
-      <c r="W4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="28" t="n">
+      <c r="X4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="28" t="n">
         <v>4.9</v>
       </c>
-      <c r="Z4" s="28" t="n">
+      <c r="AA4" s="28" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA4" s="28" t="n">
+      <c r="AB4" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="AB4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2787,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -2799,15 +2815,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="28" t="n">
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="28" t="n">
@@ -2819,10 +2835,10 @@
       <c r="M5" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="31" t="n">
+      <c r="N5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="31" t="n">
@@ -2834,49 +2850,52 @@
       <c r="R5" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="28" t="n">
-        <v>20</v>
+      <c r="S5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="U5" s="28" t="n">
         <v>20</v>
       </c>
       <c r="V5" s="28" t="n">
+        <v>20</v>
+      </c>
+      <c r="W5" s="28" t="n">
         <v>15</v>
       </c>
-      <c r="W5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="28" t="n">
-        <v>10</v>
+      <c r="X5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Z5" s="28" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AB5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -2888,15 +2907,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="28" t="n">
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="28" t="n">
@@ -2908,64 +2927,67 @@
       <c r="M6" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="31" t="n">
+      <c r="N6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="31" t="n">
         <v>25.1</v>
       </c>
-      <c r="P6" s="31" t="n">
+      <c r="Q6" s="31" t="n">
         <v>22.9</v>
       </c>
-      <c r="Q6" s="31" t="n">
+      <c r="R6" s="31" t="n">
         <v>22.4</v>
       </c>
-      <c r="R6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="28" t="n">
+      <c r="S6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="28" t="n">
         <v>22</v>
       </c>
-      <c r="U6" s="28" t="n">
+      <c r="V6" s="28" t="n">
         <v>12.2</v>
       </c>
-      <c r="V6" s="28" t="n">
+      <c r="W6" s="28" t="n">
         <v>8.4</v>
       </c>
-      <c r="W6" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="28" t="n">
+      <c r="X6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="28" t="n">
         <v>2.5</v>
       </c>
-      <c r="Z6" s="28" t="n">
+      <c r="AA6" s="28" t="n">
         <v>1.9</v>
       </c>
-      <c r="AA6" s="28" t="n">
+      <c r="AB6" s="28" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB6" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -2977,15 +2999,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="28" t="n">
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="28" t="n">
@@ -2997,64 +3019,67 @@
       <c r="M7" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="31" t="n">
+      <c r="N7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="31" t="n">
         <v>21</v>
       </c>
-      <c r="P7" s="31" t="n">
+      <c r="Q7" s="31" t="n">
         <v>19.5</v>
       </c>
-      <c r="Q7" s="31" t="n">
+      <c r="R7" s="31" t="n">
         <v>20</v>
       </c>
-      <c r="R7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="28" t="n">
+      <c r="S7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="28" t="n">
         <v>46.2</v>
       </c>
-      <c r="U7" s="28" t="n">
+      <c r="V7" s="28" t="n">
         <v>55.5</v>
       </c>
-      <c r="V7" s="28" t="n">
+      <c r="W7" s="28" t="n">
         <v>26.8</v>
       </c>
-      <c r="W7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="28" t="n">
+      <c r="X7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="28" t="n">
         <v>35.5</v>
       </c>
-      <c r="Z7" s="28" t="n">
+      <c r="AA7" s="28" t="n">
         <v>50.3</v>
       </c>
-      <c r="AA7" s="28" t="n">
+      <c r="AB7" s="28" t="n">
         <v>16.5</v>
       </c>
-      <c r="AB7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="15" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
@@ -3066,15 +3091,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="28" t="n">
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="28" t="n">
@@ -3086,64 +3111,67 @@
       <c r="M8" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="31" t="n">
+      <c r="N8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="31" t="n">
         <v>22.7</v>
       </c>
-      <c r="P8" s="31" t="n">
+      <c r="Q8" s="31" t="n">
         <v>21.1</v>
       </c>
-      <c r="Q8" s="31" t="n">
+      <c r="R8" s="31" t="n">
         <v>21.6</v>
       </c>
-      <c r="R8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="28" t="n">
+      <c r="S8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="28" t="n">
         <v>23.1</v>
       </c>
-      <c r="U8" s="28" t="n">
+      <c r="V8" s="28" t="n">
         <v>22.3</v>
       </c>
-      <c r="V8" s="28" t="n">
+      <c r="W8" s="28" t="n">
         <v>12.9</v>
       </c>
-      <c r="W8" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="28" t="n">
+      <c r="X8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="28" t="n">
         <v>11.7</v>
       </c>
-      <c r="Z8" s="28" t="n">
+      <c r="AA8" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AA8" s="28" t="n">
+      <c r="AB8" s="28" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB8" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
@@ -3155,15 +3183,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="28" t="n">
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="28" t="n">
@@ -3175,10 +3203,10 @@
       <c r="M9" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="31" t="n">
+      <c r="N9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="31" t="n">
@@ -3190,37 +3218,40 @@
       <c r="R9" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="28" t="n">
-        <v>20</v>
+      <c r="S9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="U9" s="28" t="n">
         <v>20</v>
       </c>
       <c r="V9" s="28" t="n">
+        <v>20</v>
+      </c>
+      <c r="W9" s="28" t="n">
         <v>15</v>
       </c>
-      <c r="W9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="28" t="n">
-        <v>10</v>
+      <c r="X9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Z9" s="28" t="n">
         <v>10</v>
       </c>
       <c r="AA9" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AB9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1" t="n">
+      <c r="AC9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3273,7 @@
   </sheetPr>
   <dimension ref="A1:BO14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S26" activeCellId="0" sqref="S26"/>
     </sheetView>
   </sheetViews>
@@ -3462,205 +3493,205 @@
   <sheetData>
     <row r="1" s="36" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W1" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z1" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA1" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AB1" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC1" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE1" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF1" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG1" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH1" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AI1" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL1" s="34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM1" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN1" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO1" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AP1" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ1" s="35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AR1" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AS1" s="35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AT1" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AU1" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AV1" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AW1" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX1" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AY1" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AZ1" s="34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BA1" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BB1" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BC1" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BD1" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BE1" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BF1" s="34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BG1" s="35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BH1" s="35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BI1" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BJ1" s="35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BK1" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BL1" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BM1" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BN1" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BO1" s="35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4071,7 +4102,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>17</v>
@@ -4274,7 +4305,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>22</v>
@@ -4477,7 +4508,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>24.05</v>
@@ -4680,7 +4711,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>30.00675</v>
@@ -4883,7 +4914,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>22.3875</v>
@@ -5086,7 +5117,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>25</v>
@@ -5289,7 +5320,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14.3</v>
@@ -5492,7 +5523,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>11.8</v>
@@ -5695,7 +5726,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>14.3</v>
@@ -5898,7 +5929,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>16.8</v>
@@ -6101,7 +6132,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>15.1</v>
@@ -6349,79 +6380,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L1" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N1" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O1" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q1" s="46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R1" s="46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S1" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T1" s="46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U1" s="46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W1" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X1" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y1" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z1" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6644,238 +6675,238 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P1" s="53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q1" s="53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R1" s="53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S1" s="53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T1" s="53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U1" s="53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V1" s="53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="W1" s="53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="X1" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y1" s="53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z1" s="53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA1" s="47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB1" s="47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC1" s="54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD1" s="55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AE1" s="56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF1" s="57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG1" s="58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AH1" s="55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AI1" s="56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AJ1" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK1" s="58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL1" s="55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM1" s="56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN1" s="57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO1" s="58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP1" s="55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ1" s="56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR1" s="57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AS1" s="58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AT1" s="55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AU1" s="56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AV1" s="57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AW1" s="58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AX1" s="55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AY1" s="56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AZ1" s="57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BA1" s="58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BB1" s="47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BC1" s="47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BD1" s="54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BE1" s="59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BF1" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BG1" s="59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BH1" s="60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BI1" s="61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BJ1" s="62" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BK1" s="62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BL1" s="59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BM1" s="59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN1" s="60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BO1" s="63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BP1" s="63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BQ1" s="64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BR1" s="65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BS1" s="66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BT1" s="67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BU1" s="68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BV1" s="53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BW1" s="53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BX1" s="53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BY1" s="53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BZ1" s="69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7009,7 +7040,7 @@
         <v>15</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO2" s="28" t="n">
         <v>1</v>
@@ -7177,7 +7208,7 @@
         <v>15</v>
       </c>
       <c r="BN3" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO3" s="28" t="n">
         <v>1</v>
@@ -7363,7 +7394,7 @@
         <v>15</v>
       </c>
       <c r="BN4" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO4" s="28" t="n">
         <v>1</v>
@@ -7569,7 +7600,7 @@
         <v>15</v>
       </c>
       <c r="BN5" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO5" s="28" t="n">
         <v>1</v>
@@ -7805,7 +7836,7 @@
         <v>15</v>
       </c>
       <c r="BN6" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO6" s="28" t="n">
         <v>1</v>
@@ -7981,7 +8012,7 @@
         <v>15</v>
       </c>
       <c r="BN7" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO7" s="28" t="n">
         <v>1</v>
@@ -8157,7 +8188,7 @@
         <v>15</v>
       </c>
       <c r="BN8" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO8" s="28" t="n">
         <v>1</v>
@@ -8333,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="BN9" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO9" s="28" t="n">
         <v>1</v>
@@ -8519,7 +8550,7 @@
         <v>15</v>
       </c>
       <c r="BN10" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO10" s="28" t="n">
         <v>1</v>
@@ -8695,7 +8726,7 @@
         <v>15</v>
       </c>
       <c r="BN11" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO11" s="28" t="n">
         <v>1</v>
@@ -8871,7 +8902,7 @@
         <v>15</v>
       </c>
       <c r="BN12" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO12" s="28" t="n">
         <v>1</v>
@@ -9046,7 +9077,7 @@
         <v>15</v>
       </c>
       <c r="BN13" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO13" s="28" t="n">
         <v>1</v>
@@ -9146,133 +9177,133 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P1" s="47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S1" s="54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="T1" s="71" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U1" s="71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V1" s="71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W1" s="71" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="X1" s="71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y1" s="71" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z1" s="72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA1" s="49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AB1" s="49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AC1" s="49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AD1" s="49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AE1" s="49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF1" s="50" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG1" s="73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AH1" s="73" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AI1" s="73" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ1" s="73" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK1" s="73" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL1" s="73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM1" s="73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN1" s="73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO1" s="73" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP1" s="73" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ1" s="74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9449,57 +9480,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1" s="77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2017</v>
@@ -9538,15 +9569,15 @@
         <v>405</v>
       </c>
       <c r="O2" s="75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2017</v>
@@ -9585,15 +9616,15 @@
         <v>405</v>
       </c>
       <c r="O3" s="76" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2017</v>
@@ -9632,15 +9663,15 @@
         <v>405</v>
       </c>
       <c r="O4" s="77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2017</v>
@@ -9679,15 +9710,15 @@
         <v>405</v>
       </c>
       <c r="O5" s="55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2017</v>
@@ -9726,15 +9757,15 @@
         <v>405</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2017</v>
@@ -9773,15 +9804,15 @@
         <v>405</v>
       </c>
       <c r="O7" s="53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2017</v>
@@ -9820,15 +9851,15 @@
         <v>405</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2017</v>
@@ -9867,15 +9898,15 @@
         <v>405</v>
       </c>
       <c r="O9" s="79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2017</v>
@@ -9916,7 +9947,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2017</v>
@@ -9957,7 +9988,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2017</v>
@@ -9998,7 +10029,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2017</v>
@@ -10039,7 +10070,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2017</v>
@@ -10080,7 +10111,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2017</v>
@@ -10121,7 +10152,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2017</v>
@@ -10162,7 +10193,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2017</v>
@@ -10203,7 +10234,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2017</v>
@@ -10244,7 +10275,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2017</v>
@@ -10285,7 +10316,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2017</v>
@@ -10326,7 +10357,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2017</v>
@@ -10367,7 +10398,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2017</v>
@@ -10408,7 +10439,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2017</v>
@@ -10449,7 +10480,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2017</v>
@@ -10490,7 +10521,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2017</v>
@@ -10531,7 +10562,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2017</v>
@@ -10572,7 +10603,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2017</v>
@@ -10613,7 +10644,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2017</v>
@@ -10654,7 +10685,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2017</v>
@@ -10695,7 +10726,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2017</v>
@@ -10736,7 +10767,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2017</v>
@@ -10777,7 +10808,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2017</v>
@@ -10818,7 +10849,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2017</v>
@@ -10859,7 +10890,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2017</v>
@@ -10900,7 +10931,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2017</v>
@@ -10941,7 +10972,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2017</v>
@@ -10982,7 +11013,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2017</v>
@@ -11023,7 +11054,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2017</v>
@@ -11064,7 +11095,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2017</v>
@@ -11105,7 +11136,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2017</v>
@@ -11146,7 +11177,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2017</v>
@@ -11187,7 +11218,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2017</v>
@@ -11228,7 +11259,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2017</v>
@@ -11269,7 +11300,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2017</v>
@@ -11310,7 +11341,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2017</v>
@@ -11351,7 +11382,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2017</v>
@@ -11392,7 +11423,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2017</v>
@@ -11433,7 +11464,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2017</v>
@@ -11474,7 +11505,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2017</v>
@@ -11515,7 +11546,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2017</v>
@@ -11556,7 +11587,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2017</v>
@@ -11597,7 +11628,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>2017</v>
@@ -11638,7 +11669,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>2017</v>
@@ -11679,7 +11710,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2017</v>
@@ -11720,7 +11751,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2017</v>
@@ -11761,7 +11792,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>2017</v>
@@ -11802,7 +11833,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>2017</v>
@@ -11843,7 +11874,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>2017</v>
@@ -11884,7 +11915,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2017</v>
@@ -11925,7 +11956,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2017</v>
@@ -11966,7 +11997,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2017</v>
@@ -12007,7 +12038,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2017</v>
@@ -12048,7 +12079,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2017</v>
@@ -12089,7 +12120,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>2017</v>
@@ -12130,7 +12161,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2017</v>
@@ -12171,7 +12202,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2017</v>
@@ -12212,7 +12243,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2017</v>
@@ -12253,7 +12284,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2017</v>
@@ -12294,7 +12325,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2017</v>
@@ -12335,7 +12366,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>2017</v>
@@ -12376,7 +12407,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2017</v>
@@ -12417,7 +12448,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2017</v>
@@ -12458,7 +12489,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>2017</v>
@@ -12499,7 +12530,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>2017</v>
@@ -12540,7 +12571,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2017</v>
@@ -12581,7 +12612,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2017</v>
@@ -12622,7 +12653,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>2017</v>
@@ -12663,7 +12694,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>2017</v>
@@ -12704,7 +12735,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2017</v>
@@ -12745,7 +12776,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2017</v>
@@ -12786,7 +12817,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2017</v>
@@ -12827,7 +12858,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>2017</v>
@@ -12868,7 +12899,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2017</v>
@@ -12909,7 +12940,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>2017</v>
@@ -12950,7 +12981,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2017</v>
@@ -12991,7 +13022,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>2017</v>
@@ -13032,7 +13063,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2017</v>
@@ -13073,7 +13104,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>2017</v>
@@ -13114,7 +13145,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2017</v>
@@ -13155,7 +13186,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>2017</v>
@@ -13196,7 +13227,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>2017</v>
@@ -13237,7 +13268,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>2017</v>
@@ -13278,7 +13309,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2017</v>
@@ -13319,7 +13350,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>2017</v>
@@ -13360,7 +13391,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2017</v>
@@ -13401,7 +13432,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2017</v>
@@ -13442,7 +13473,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>2017</v>
@@ -13483,7 +13514,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>2017</v>
@@ -13524,7 +13555,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>2017</v>
@@ -13565,7 +13596,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>2017</v>
@@ -13606,7 +13637,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>2017</v>
@@ -13647,7 +13678,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>2017</v>
@@ -13688,7 +13719,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2017</v>
@@ -13729,7 +13760,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2017</v>
@@ -13770,7 +13801,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>2017</v>
@@ -13811,7 +13842,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>2017</v>
@@ -13852,7 +13883,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2017</v>
@@ -13893,7 +13924,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>2017</v>
@@ -13934,7 +13965,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2017</v>
@@ -13975,7 +14006,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>2017</v>
@@ -14016,7 +14047,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2017</v>
@@ -14057,7 +14088,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>2017</v>
@@ -14098,7 +14129,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>2017</v>
@@ -14139,7 +14170,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>2017</v>
@@ -14180,7 +14211,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>2017</v>
@@ -14221,7 +14252,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>2017</v>
@@ -14262,7 +14293,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2017</v>
@@ -14303,7 +14334,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>2017</v>
@@ -14344,7 +14375,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2017</v>
@@ -14385,7 +14416,7 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2017</v>
@@ -14426,7 +14457,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>2017</v>
@@ -14467,7 +14498,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>2017</v>
@@ -14508,7 +14539,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>2017</v>
@@ -14549,7 +14580,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>2017</v>
@@ -14590,7 +14621,7 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>2017</v>
@@ -14631,7 +14662,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2017</v>
@@ -14672,7 +14703,7 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>2017</v>
@@ -14713,7 +14744,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>2017</v>
@@ -14754,7 +14785,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>2017</v>
@@ -14795,7 +14826,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>2017</v>
@@ -14836,7 +14867,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>2017</v>
@@ -14877,7 +14908,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>2017</v>
@@ -14918,7 +14949,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2017</v>
@@ -14959,7 +14990,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2017</v>
@@ -15000,7 +15031,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>2017</v>
@@ -15041,7 +15072,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>2017</v>
@@ -15082,7 +15113,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>2017</v>
@@ -15123,7 +15154,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2017</v>
@@ -15164,7 +15195,7 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>2017</v>
@@ -15205,7 +15236,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>2017</v>
@@ -15246,7 +15277,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2017</v>
@@ -15287,7 +15318,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>2017</v>
@@ -15328,7 +15359,7 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2017</v>
@@ -15369,7 +15400,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>2017</v>
@@ -15410,7 +15441,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>2017</v>
@@ -15451,7 +15482,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2017</v>
@@ -15492,7 +15523,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>2017</v>
@@ -15533,7 +15564,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>2017</v>
@@ -15574,7 +15605,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>2017</v>
@@ -15615,7 +15646,7 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>2017</v>
@@ -15656,7 +15687,7 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2017</v>
@@ -15697,7 +15728,7 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2017</v>
@@ -15738,7 +15769,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>2017</v>
@@ -15779,7 +15810,7 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2017</v>
@@ -15820,7 +15851,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>2017</v>
@@ -15861,7 +15892,7 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>2017</v>
@@ -15902,7 +15933,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>2017</v>
@@ -15943,7 +15974,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>2017</v>
@@ -15984,7 +16015,7 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>2017</v>
@@ -16025,7 +16056,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2017</v>
@@ -16066,7 +16097,7 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>2017</v>
@@ -16107,7 +16138,7 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2017</v>
@@ -16148,7 +16179,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>2017</v>
@@ -16189,7 +16220,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>2017</v>
@@ -16230,7 +16261,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>2017</v>
@@ -16271,7 +16302,7 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>2017</v>
@@ -16312,7 +16343,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2017</v>
@@ -16353,7 +16384,7 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2017</v>
@@ -16394,7 +16425,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>2017</v>
@@ -16435,7 +16466,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>2017</v>
@@ -16476,7 +16507,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2017</v>
@@ -16517,7 +16548,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>2017</v>
@@ -16558,7 +16589,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>2017</v>
@@ -16599,7 +16630,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>2017</v>
@@ -16640,7 +16671,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2017</v>
@@ -16681,7 +16712,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2017</v>
@@ -16722,7 +16753,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>2017</v>
@@ -16763,7 +16794,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>2017</v>
@@ -16804,7 +16835,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>2017</v>
@@ -16845,7 +16876,7 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2017</v>
@@ -16886,7 +16917,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>2017</v>
@@ -16927,7 +16958,7 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>2017</v>
@@ -16968,7 +16999,7 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>2017</v>
@@ -17009,7 +17040,7 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>2017</v>
@@ -17050,7 +17081,7 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2017</v>
@@ -17091,7 +17122,7 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>2017</v>
@@ -17132,7 +17163,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>2017</v>
@@ -17173,7 +17204,7 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2017</v>
@@ -17214,7 +17245,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>2017</v>
@@ -17255,7 +17286,7 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>2017</v>
@@ -17296,7 +17327,7 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>2017</v>
@@ -17337,7 +17368,7 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>2017</v>
@@ -17378,7 +17409,7 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2017</v>
@@ -17419,7 +17450,7 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>2017</v>
@@ -17460,7 +17491,7 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>2017</v>
@@ -17501,7 +17532,7 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>2017</v>
@@ -17542,7 +17573,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>2017</v>
@@ -17583,7 +17614,7 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>2017</v>
@@ -17624,7 +17655,7 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>2017</v>
@@ -17665,7 +17696,7 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2017</v>
@@ -17706,7 +17737,7 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2017</v>
@@ -17747,7 +17778,7 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>2017</v>
@@ -17788,7 +17819,7 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>2017</v>
@@ -17829,7 +17860,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>2017</v>
@@ -17870,7 +17901,7 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2017</v>
@@ -17911,7 +17942,7 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>2017</v>
@@ -17952,7 +17983,7 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>2017</v>
@@ -17993,7 +18024,7 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>2017</v>
@@ -18034,7 +18065,7 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2017</v>
@@ -18075,7 +18106,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2017</v>
@@ -18116,7 +18147,7 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>2017</v>
@@ -18157,7 +18188,7 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>2017</v>
@@ -18198,7 +18229,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2017</v>
@@ -18239,7 +18270,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>2017</v>
@@ -18280,7 +18311,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>2017</v>
@@ -18321,7 +18352,7 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>2017</v>
@@ -18362,7 +18393,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>2017</v>
@@ -18403,7 +18434,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>2017</v>
@@ -18444,7 +18475,7 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>2017</v>
@@ -18485,7 +18516,7 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>2017</v>
@@ -18526,7 +18557,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>2017</v>
@@ -18567,7 +18598,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>2017</v>
@@ -18608,7 +18639,7 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>2017</v>
@@ -18649,7 +18680,7 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>2017</v>
@@ -18690,7 +18721,7 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>2017</v>
@@ -18731,7 +18762,7 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>2017</v>
@@ -18772,7 +18803,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>2017</v>
@@ -18813,7 +18844,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>2017</v>
@@ -18854,7 +18885,7 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>2017</v>
@@ -18895,7 +18926,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>2017</v>
@@ -18936,7 +18967,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>2017</v>
@@ -18977,7 +19008,7 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>2017</v>
@@ -19018,7 +19049,7 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>2017</v>
@@ -19059,7 +19090,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>2017</v>
@@ -19100,7 +19131,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>2017</v>
@@ -19141,7 +19172,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>2017</v>
@@ -19182,7 +19213,7 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>2017</v>
@@ -19223,7 +19254,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>2017</v>
@@ -19264,7 +19295,7 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>2017</v>
@@ -19305,7 +19336,7 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>2017</v>
@@ -19346,7 +19377,7 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>2017</v>
@@ -19387,7 +19418,7 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>2017</v>
@@ -19428,7 +19459,7 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>2017</v>
@@ -19469,7 +19500,7 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>2017</v>
@@ -19510,7 +19541,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>2017</v>
@@ -19551,7 +19582,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>2017</v>
@@ -19592,7 +19623,7 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>2017</v>
@@ -19633,7 +19664,7 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>2017</v>
@@ -19674,7 +19705,7 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>2017</v>
@@ -19715,7 +19746,7 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>2017</v>
@@ -19756,7 +19787,7 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>2017</v>
@@ -19797,7 +19828,7 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>2017</v>
@@ -19838,7 +19869,7 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>2017</v>
@@ -19879,7 +19910,7 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>2017</v>
@@ -19920,7 +19951,7 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>2017</v>
@@ -19961,7 +19992,7 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>2017</v>
@@ -20002,7 +20033,7 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>2017</v>
@@ -20043,7 +20074,7 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>2017</v>
@@ -20084,7 +20115,7 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>2017</v>
@@ -20125,7 +20156,7 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>2017</v>
@@ -20166,7 +20197,7 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>2017</v>
@@ -20207,7 +20238,7 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>2017</v>
@@ -20248,7 +20279,7 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>2017</v>
@@ -20289,7 +20320,7 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>2017</v>
@@ -20330,7 +20361,7 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>2017</v>
@@ -20371,7 +20402,7 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>2017</v>
@@ -20412,7 +20443,7 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>2017</v>
@@ -20453,7 +20484,7 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>2017</v>
@@ -20494,7 +20525,7 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>2017</v>
@@ -20535,7 +20566,7 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>2017</v>
@@ -20576,7 +20607,7 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>2017</v>
@@ -20617,7 +20648,7 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>2017</v>
@@ -20658,7 +20689,7 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>2017</v>
@@ -20699,7 +20730,7 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>2017</v>
@@ -20740,7 +20771,7 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>2017</v>
@@ -20781,7 +20812,7 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>2017</v>
@@ -20822,7 +20853,7 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>2017</v>
@@ -20863,7 +20894,7 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>2017</v>
@@ -20904,7 +20935,7 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>2017</v>
@@ -20945,7 +20976,7 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>2017</v>
@@ -20986,7 +21017,7 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>2017</v>
@@ -21027,7 +21058,7 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>2017</v>
@@ -21068,7 +21099,7 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>2017</v>
@@ -21109,7 +21140,7 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>2017</v>
@@ -21150,7 +21181,7 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>2017</v>
@@ -21191,7 +21222,7 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>2017</v>
@@ -21232,7 +21263,7 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>2017</v>
@@ -21273,7 +21304,7 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>2017</v>
@@ -21314,7 +21345,7 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>2017</v>
@@ -21355,7 +21386,7 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>2017</v>
@@ -21396,7 +21427,7 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>2017</v>
@@ -21437,7 +21468,7 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>2017</v>
@@ -21478,7 +21509,7 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>2017</v>
@@ -21519,7 +21550,7 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>2017</v>
@@ -21560,7 +21591,7 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>2017</v>
@@ -21601,7 +21632,7 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>2017</v>
@@ -21642,7 +21673,7 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>2017</v>
@@ -21683,7 +21714,7 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>2017</v>
@@ -21724,7 +21755,7 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>2017</v>
@@ -21765,7 +21796,7 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>2017</v>
@@ -21806,7 +21837,7 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>2017</v>
@@ -21847,7 +21878,7 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>2017</v>
@@ -21888,7 +21919,7 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>2017</v>
@@ -21929,7 +21960,7 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>2017</v>
@@ -21970,7 +22001,7 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>2017</v>
@@ -22011,7 +22042,7 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>2017</v>
@@ -22052,7 +22083,7 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>2017</v>
@@ -22093,7 +22124,7 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>2017</v>
@@ -22134,7 +22165,7 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>2017</v>
@@ -22175,7 +22206,7 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>2017</v>
@@ -22216,7 +22247,7 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>2017</v>
@@ -22257,7 +22288,7 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>2017</v>
@@ -22298,7 +22329,7 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>2017</v>
@@ -22339,7 +22370,7 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>2017</v>
@@ -22380,7 +22411,7 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>2017</v>
@@ -22421,7 +22452,7 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>2017</v>
@@ -22462,7 +22493,7 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B317" s="0" t="n">
         <v>2017</v>
@@ -22503,7 +22534,7 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B318" s="0" t="n">
         <v>2017</v>
@@ -22544,7 +22575,7 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B319" s="0" t="n">
         <v>2017</v>
@@ -22585,7 +22616,7 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B320" s="0" t="n">
         <v>2017</v>
@@ -22626,7 +22657,7 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>2017</v>
@@ -22667,7 +22698,7 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>2017</v>
@@ -22708,7 +22739,7 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>2017</v>
@@ -22749,7 +22780,7 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>2017</v>
@@ -22790,7 +22821,7 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>2017</v>
@@ -22831,7 +22862,7 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>2017</v>
@@ -22872,7 +22903,7 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B327" s="0" t="n">
         <v>2017</v>
@@ -22913,7 +22944,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>2017</v>
@@ -22954,7 +22985,7 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>2017</v>
@@ -22995,7 +23026,7 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B330" s="0" t="n">
         <v>2017</v>
@@ -23036,7 +23067,7 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B331" s="0" t="n">
         <v>2017</v>
@@ -23077,7 +23108,7 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B332" s="0" t="n">
         <v>2017</v>
@@ -23118,7 +23149,7 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B333" s="0" t="n">
         <v>2017</v>
@@ -23159,7 +23190,7 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B334" s="0" t="n">
         <v>2017</v>
@@ -23200,7 +23231,7 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B335" s="0" t="n">
         <v>2017</v>
@@ -23241,7 +23272,7 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B336" s="0" t="n">
         <v>2017</v>
@@ -23282,7 +23313,7 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B337" s="0" t="n">
         <v>2017</v>
@@ -23323,7 +23354,7 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B338" s="0" t="n">
         <v>2017</v>
@@ -23364,7 +23395,7 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B339" s="0" t="n">
         <v>2017</v>
@@ -23405,7 +23436,7 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B340" s="0" t="n">
         <v>2017</v>
@@ -23446,7 +23477,7 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B341" s="0" t="n">
         <v>2017</v>
@@ -23487,7 +23518,7 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>2017</v>
@@ -23528,7 +23559,7 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B343" s="0" t="n">
         <v>2017</v>
@@ -23569,7 +23600,7 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B344" s="0" t="n">
         <v>2017</v>
@@ -23610,7 +23641,7 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>2017</v>
@@ -23651,7 +23682,7 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B346" s="0" t="n">
         <v>2017</v>
@@ -23692,7 +23723,7 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B347" s="0" t="n">
         <v>2017</v>
@@ -23733,7 +23764,7 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B348" s="0" t="n">
         <v>2017</v>
@@ -23774,7 +23805,7 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B349" s="0" t="n">
         <v>2017</v>
@@ -23815,7 +23846,7 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B350" s="0" t="n">
         <v>2017</v>
@@ -23856,7 +23887,7 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>2017</v>
@@ -23897,7 +23928,7 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>2017</v>
@@ -23938,7 +23969,7 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>2017</v>
@@ -23979,7 +24010,7 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>2017</v>
@@ -24020,7 +24051,7 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>2017</v>
@@ -24061,7 +24092,7 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>2017</v>
@@ -24102,7 +24133,7 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>2017</v>
@@ -24143,7 +24174,7 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>2017</v>
@@ -24184,7 +24215,7 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>2017</v>
@@ -24225,7 +24256,7 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>2017</v>
@@ -24266,7 +24297,7 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>2017</v>
@@ -24307,7 +24338,7 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>2017</v>
@@ -24348,7 +24379,7 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>2017</v>
@@ -24389,7 +24420,7 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>2017</v>
@@ -24430,7 +24461,7 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>2017</v>
@@ -24471,7 +24502,7 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>2017</v>
@@ -24512,7 +24543,7 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>2018</v>
@@ -24553,7 +24584,7 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>2018</v>
@@ -24594,7 +24625,7 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>2018</v>
@@ -24635,7 +24666,7 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>2018</v>
@@ -24676,7 +24707,7 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>2018</v>
@@ -24717,7 +24748,7 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>2018</v>
@@ -24758,7 +24789,7 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>2018</v>
@@ -24799,7 +24830,7 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>2018</v>
@@ -24840,7 +24871,7 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>2018</v>
@@ -24881,7 +24912,7 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>2018</v>
@@ -24922,7 +24953,7 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>2018</v>
@@ -24963,7 +24994,7 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>2018</v>
@@ -25004,7 +25035,7 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>2018</v>
@@ -25045,7 +25076,7 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>2018</v>
@@ -25086,7 +25117,7 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>2018</v>
@@ -25127,7 +25158,7 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>2018</v>
@@ -25168,7 +25199,7 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>2018</v>
@@ -25209,7 +25240,7 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>2018</v>
@@ -25250,7 +25281,7 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>2018</v>
@@ -25291,7 +25322,7 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>2018</v>
@@ -25332,7 +25363,7 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>2018</v>
@@ -25373,7 +25404,7 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>2018</v>
@@ -25414,7 +25445,7 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>2018</v>
@@ -25455,7 +25486,7 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>2018</v>
@@ -25496,7 +25527,7 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>2018</v>
@@ -25537,7 +25568,7 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>2018</v>
@@ -25578,7 +25609,7 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>2018</v>
@@ -25619,7 +25650,7 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>2018</v>
@@ -25660,7 +25691,7 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>2018</v>
@@ -25701,7 +25732,7 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>2018</v>
@@ -25742,7 +25773,7 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>2018</v>
@@ -25783,7 +25814,7 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>2018</v>
@@ -25824,7 +25855,7 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>2018</v>
@@ -25865,7 +25896,7 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>2018</v>
@@ -25906,7 +25937,7 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>2018</v>
@@ -25947,7 +25978,7 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>2018</v>
@@ -25988,7 +26019,7 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>2018</v>
@@ -26029,7 +26060,7 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B404" s="0" t="n">
         <v>2018</v>
@@ -26070,7 +26101,7 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B405" s="0" t="n">
         <v>2018</v>
@@ -26111,7 +26142,7 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B406" s="0" t="n">
         <v>2018</v>
@@ -26152,7 +26183,7 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B407" s="0" t="n">
         <v>2018</v>
@@ -26193,7 +26224,7 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B408" s="0" t="n">
         <v>2018</v>
@@ -26234,7 +26265,7 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B409" s="0" t="n">
         <v>2018</v>
@@ -26275,7 +26306,7 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B410" s="0" t="n">
         <v>2018</v>
@@ -26316,7 +26347,7 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B411" s="0" t="n">
         <v>2018</v>
@@ -26357,7 +26388,7 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B412" s="0" t="n">
         <v>2018</v>
@@ -26398,7 +26429,7 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B413" s="0" t="n">
         <v>2018</v>
@@ -26439,7 +26470,7 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B414" s="0" t="n">
         <v>2018</v>
@@ -26480,7 +26511,7 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B415" s="0" t="n">
         <v>2018</v>
@@ -26521,7 +26552,7 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B416" s="0" t="n">
         <v>2018</v>
@@ -26562,7 +26593,7 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B417" s="0" t="n">
         <v>2018</v>
@@ -26603,7 +26634,7 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B418" s="0" t="n">
         <v>2018</v>
@@ -26644,7 +26675,7 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B419" s="0" t="n">
         <v>2018</v>
@@ -26685,7 +26716,7 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B420" s="0" t="n">
         <v>2018</v>
@@ -26726,7 +26757,7 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B421" s="0" t="n">
         <v>2018</v>
@@ -26767,7 +26798,7 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B422" s="0" t="n">
         <v>2018</v>
@@ -26808,7 +26839,7 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B423" s="0" t="n">
         <v>2018</v>
@@ -26849,7 +26880,7 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B424" s="0" t="n">
         <v>2018</v>
@@ -26890,7 +26921,7 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B425" s="0" t="n">
         <v>2018</v>
@@ -26931,7 +26962,7 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B426" s="0" t="n">
         <v>2018</v>
@@ -26972,7 +27003,7 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B427" s="0" t="n">
         <v>2018</v>
@@ -27013,7 +27044,7 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B428" s="0" t="n">
         <v>2018</v>
@@ -27054,7 +27085,7 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B429" s="0" t="n">
         <v>2018</v>
@@ -27095,7 +27126,7 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B430" s="0" t="n">
         <v>2018</v>
@@ -27136,7 +27167,7 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B431" s="0" t="n">
         <v>2018</v>
@@ -27177,7 +27208,7 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B432" s="0" t="n">
         <v>2018</v>
@@ -27218,7 +27249,7 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B433" s="0" t="n">
         <v>2018</v>
@@ -27259,7 +27290,7 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B434" s="0" t="n">
         <v>2018</v>
@@ -27300,7 +27331,7 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B435" s="0" t="n">
         <v>2018</v>
@@ -27341,7 +27372,7 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B436" s="0" t="n">
         <v>2018</v>
@@ -27382,7 +27413,7 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B437" s="0" t="n">
         <v>2018</v>
@@ -27423,7 +27454,7 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B438" s="0" t="n">
         <v>2018</v>
@@ -27464,7 +27495,7 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B439" s="0" t="n">
         <v>2018</v>
@@ -27505,7 +27536,7 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B440" s="0" t="n">
         <v>2018</v>
@@ -27546,7 +27577,7 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B441" s="0" t="n">
         <v>2018</v>
@@ -27587,7 +27618,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B442" s="0" t="n">
         <v>2018</v>
@@ -27628,7 +27659,7 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B443" s="0" t="n">
         <v>2018</v>
@@ -27669,7 +27700,7 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B444" s="0" t="n">
         <v>2018</v>
@@ -27710,7 +27741,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B445" s="0" t="n">
         <v>2018</v>
@@ -27751,7 +27782,7 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B446" s="0" t="n">
         <v>2018</v>
@@ -27792,7 +27823,7 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B447" s="0" t="n">
         <v>2018</v>
@@ -27833,7 +27864,7 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B448" s="0" t="n">
         <v>2018</v>
@@ -27874,7 +27905,7 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B449" s="0" t="n">
         <v>2018</v>
@@ -27915,7 +27946,7 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B450" s="0" t="n">
         <v>2018</v>
@@ -27956,7 +27987,7 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B451" s="0" t="n">
         <v>2018</v>
@@ -27997,7 +28028,7 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B452" s="0" t="n">
         <v>2018</v>
@@ -28038,7 +28069,7 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B453" s="0" t="n">
         <v>2018</v>
@@ -28079,7 +28110,7 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B454" s="0" t="n">
         <v>2018</v>
@@ -28120,7 +28151,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B455" s="0" t="n">
         <v>2018</v>
@@ -28161,7 +28192,7 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B456" s="0" t="n">
         <v>2018</v>
@@ -28202,7 +28233,7 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B457" s="0" t="n">
         <v>2018</v>
@@ -28243,7 +28274,7 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B458" s="0" t="n">
         <v>2018</v>
@@ -28284,7 +28315,7 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B459" s="0" t="n">
         <v>2018</v>
@@ -28325,7 +28356,7 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B460" s="0" t="n">
         <v>2018</v>
@@ -28366,7 +28397,7 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B461" s="0" t="n">
         <v>2018</v>
@@ -28407,7 +28438,7 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B462" s="0" t="n">
         <v>2018</v>
@@ -28448,7 +28479,7 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B463" s="0" t="n">
         <v>2018</v>
@@ -28489,7 +28520,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B464" s="0" t="n">
         <v>2018</v>
@@ -28530,7 +28561,7 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B465" s="0" t="n">
         <v>2018</v>
@@ -28571,7 +28602,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B466" s="0" t="n">
         <v>2018</v>
@@ -28612,7 +28643,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B467" s="0" t="n">
         <v>2018</v>
@@ -28653,7 +28684,7 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B468" s="0" t="n">
         <v>2018</v>
@@ -28694,7 +28725,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B469" s="0" t="n">
         <v>2018</v>
@@ -28735,7 +28766,7 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B470" s="0" t="n">
         <v>2018</v>
@@ -28776,7 +28807,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B471" s="0" t="n">
         <v>2018</v>
@@ -28817,7 +28848,7 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B472" s="0" t="n">
         <v>2018</v>
@@ -28858,7 +28889,7 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B473" s="0" t="n">
         <v>2018</v>
@@ -28899,7 +28930,7 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B474" s="0" t="n">
         <v>2018</v>
@@ -28940,7 +28971,7 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B475" s="0" t="n">
         <v>2018</v>
@@ -28981,7 +29012,7 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B476" s="0" t="n">
         <v>2018</v>
@@ -29022,7 +29053,7 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B477" s="0" t="n">
         <v>2018</v>
@@ -29063,7 +29094,7 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B478" s="0" t="n">
         <v>2018</v>
@@ -29104,7 +29135,7 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B479" s="0" t="n">
         <v>2018</v>
@@ -29145,7 +29176,7 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B480" s="0" t="n">
         <v>2018</v>
@@ -29186,7 +29217,7 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B481" s="0" t="n">
         <v>2018</v>
@@ -29227,7 +29258,7 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B482" s="0" t="n">
         <v>2018</v>
@@ -29268,7 +29299,7 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B483" s="0" t="n">
         <v>2018</v>
@@ -29309,7 +29340,7 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B484" s="0" t="n">
         <v>2018</v>
@@ -29350,7 +29381,7 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B485" s="0" t="n">
         <v>2018</v>
@@ -29391,7 +29422,7 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B486" s="0" t="n">
         <v>2018</v>
@@ -29432,7 +29463,7 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B487" s="0" t="n">
         <v>2018</v>
@@ -29473,7 +29504,7 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B488" s="0" t="n">
         <v>2018</v>
@@ -29514,7 +29545,7 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B489" s="0" t="n">
         <v>2018</v>
@@ -29555,7 +29586,7 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B490" s="0" t="n">
         <v>2018</v>
@@ -29596,7 +29627,7 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B491" s="0" t="n">
         <v>2018</v>
@@ -29637,7 +29668,7 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B492" s="0" t="n">
         <v>2018</v>
@@ -29678,7 +29709,7 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B493" s="0" t="n">
         <v>2018</v>
@@ -29719,7 +29750,7 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B494" s="0" t="n">
         <v>2018</v>
@@ -29760,7 +29791,7 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B495" s="0" t="n">
         <v>2018</v>
@@ -29801,7 +29832,7 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B496" s="0" t="n">
         <v>2018</v>
@@ -29842,7 +29873,7 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B497" s="0" t="n">
         <v>2018</v>
@@ -29883,7 +29914,7 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B498" s="0" t="n">
         <v>2018</v>
@@ -29924,7 +29955,7 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B499" s="0" t="n">
         <v>2018</v>
@@ -29965,7 +29996,7 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B500" s="0" t="n">
         <v>2018</v>
@@ -30006,7 +30037,7 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B501" s="0" t="n">
         <v>2018</v>
@@ -30047,7 +30078,7 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B502" s="0" t="n">
         <v>2018</v>
@@ -30088,7 +30119,7 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B503" s="0" t="n">
         <v>2018</v>
@@ -30129,7 +30160,7 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B504" s="0" t="n">
         <v>2018</v>
@@ -30170,7 +30201,7 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B505" s="0" t="n">
         <v>2018</v>
@@ -30211,7 +30242,7 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B506" s="0" t="n">
         <v>2018</v>
@@ -30252,7 +30283,7 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B507" s="0" t="n">
         <v>2018</v>
@@ -30293,7 +30324,7 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B508" s="0" t="n">
         <v>2018</v>
@@ -30334,7 +30365,7 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B509" s="0" t="n">
         <v>2018</v>
@@ -30375,7 +30406,7 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B510" s="0" t="n">
         <v>2018</v>
@@ -30416,7 +30447,7 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B511" s="0" t="n">
         <v>2018</v>
@@ -30457,7 +30488,7 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B512" s="0" t="n">
         <v>2018</v>
@@ -30498,7 +30529,7 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B513" s="0" t="n">
         <v>2018</v>
@@ -30539,7 +30570,7 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B514" s="0" t="n">
         <v>2018</v>
@@ -30580,7 +30611,7 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B515" s="0" t="n">
         <v>2018</v>
@@ -30621,7 +30652,7 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B516" s="0" t="n">
         <v>2018</v>
@@ -30662,7 +30693,7 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B517" s="0" t="n">
         <v>2018</v>
@@ -30703,7 +30734,7 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B518" s="0" t="n">
         <v>2018</v>
@@ -30744,7 +30775,7 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B519" s="0" t="n">
         <v>2018</v>
@@ -30785,7 +30816,7 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B520" s="0" t="n">
         <v>2018</v>
@@ -30826,7 +30857,7 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B521" s="0" t="n">
         <v>2018</v>
@@ -30867,7 +30898,7 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B522" s="0" t="n">
         <v>2018</v>
@@ -30908,7 +30939,7 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B523" s="0" t="n">
         <v>2018</v>
@@ -30949,7 +30980,7 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B524" s="0" t="n">
         <v>2018</v>
@@ -30990,7 +31021,7 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B525" s="0" t="n">
         <v>2018</v>
@@ -31031,7 +31062,7 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B526" s="0" t="n">
         <v>2018</v>
@@ -31072,7 +31103,7 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B527" s="0" t="n">
         <v>2018</v>
@@ -31113,7 +31144,7 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B528" s="0" t="n">
         <v>2018</v>
@@ -31154,7 +31185,7 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B529" s="0" t="n">
         <v>2018</v>
@@ -31195,7 +31226,7 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B530" s="0" t="n">
         <v>2018</v>
@@ -31236,7 +31267,7 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B531" s="0" t="n">
         <v>2018</v>
@@ -31277,7 +31308,7 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>2018</v>
@@ -31318,7 +31349,7 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>2018</v>
@@ -31359,7 +31390,7 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>2018</v>
@@ -31400,7 +31431,7 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>2018</v>
@@ -31441,7 +31472,7 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>2018</v>
@@ -31482,7 +31513,7 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>2018</v>
@@ -31523,7 +31554,7 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B538" s="0" t="n">
         <v>2018</v>
@@ -31564,7 +31595,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B539" s="0" t="n">
         <v>2018</v>
@@ -31605,7 +31636,7 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B540" s="0" t="n">
         <v>2018</v>
@@ -31646,7 +31677,7 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B541" s="0" t="n">
         <v>2018</v>
@@ -31687,7 +31718,7 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B542" s="0" t="n">
         <v>2018</v>
@@ -31728,7 +31759,7 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B543" s="0" t="n">
         <v>2018</v>
@@ -31769,7 +31800,7 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B544" s="0" t="n">
         <v>2018</v>
@@ -31810,7 +31841,7 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B545" s="0" t="n">
         <v>2018</v>
@@ -31851,7 +31882,7 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B546" s="0" t="n">
         <v>2018</v>
@@ -31892,7 +31923,7 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B547" s="0" t="n">
         <v>2018</v>
@@ -31933,7 +31964,7 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>2018</v>
@@ -31974,7 +32005,7 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>2018</v>
@@ -32015,7 +32046,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>2018</v>
@@ -32056,7 +32087,7 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>2018</v>
@@ -32097,7 +32128,7 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>2018</v>
@@ -32138,7 +32169,7 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>2018</v>
@@ -32179,7 +32210,7 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>2018</v>
@@ -32220,7 +32251,7 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>2018</v>
@@ -32261,7 +32292,7 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B556" s="0" t="n">
         <v>2018</v>
@@ -32302,7 +32333,7 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B557" s="0" t="n">
         <v>2018</v>
@@ -32343,7 +32374,7 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B558" s="0" t="n">
         <v>2018</v>
@@ -32384,7 +32415,7 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B559" s="0" t="n">
         <v>2018</v>
@@ -32425,7 +32456,7 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B560" s="0" t="n">
         <v>2018</v>
@@ -32466,7 +32497,7 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B561" s="0" t="n">
         <v>2018</v>
@@ -32507,7 +32538,7 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B562" s="0" t="n">
         <v>2018</v>
@@ -32548,7 +32579,7 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B563" s="0" t="n">
         <v>2018</v>
@@ -32589,7 +32620,7 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B564" s="0" t="n">
         <v>2018</v>
@@ -32630,7 +32661,7 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B565" s="0" t="n">
         <v>2018</v>
@@ -32671,7 +32702,7 @@
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B566" s="0" t="n">
         <v>2018</v>
@@ -32712,7 +32743,7 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B567" s="0" t="n">
         <v>2018</v>
@@ -32753,7 +32784,7 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B568" s="0" t="n">
         <v>2018</v>
@@ -32794,7 +32825,7 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B569" s="0" t="n">
         <v>2018</v>
@@ -32835,7 +32866,7 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B570" s="0" t="n">
         <v>2018</v>
@@ -32876,7 +32907,7 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B571" s="0" t="n">
         <v>2018</v>
@@ -32917,7 +32948,7 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B572" s="0" t="n">
         <v>2018</v>
@@ -32958,7 +32989,7 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B573" s="0" t="n">
         <v>2018</v>
@@ -32999,7 +33030,7 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B574" s="0" t="n">
         <v>2018</v>
@@ -33040,7 +33071,7 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B575" s="0" t="n">
         <v>2018</v>
@@ -33081,7 +33112,7 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B576" s="0" t="n">
         <v>2018</v>
@@ -33122,7 +33153,7 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B577" s="0" t="n">
         <v>2018</v>
@@ -33163,7 +33194,7 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B578" s="0" t="n">
         <v>2018</v>
@@ -33204,7 +33235,7 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B579" s="0" t="n">
         <v>2018</v>
@@ -33245,7 +33276,7 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B580" s="0" t="n">
         <v>2018</v>
@@ -33286,7 +33317,7 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B581" s="0" t="n">
         <v>2018</v>
@@ -33327,7 +33358,7 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B582" s="0" t="n">
         <v>2018</v>
@@ -33368,7 +33399,7 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B583" s="0" t="n">
         <v>2018</v>
@@ -33409,7 +33440,7 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B584" s="0" t="n">
         <v>2018</v>
@@ -33450,7 +33481,7 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B585" s="0" t="n">
         <v>2018</v>
@@ -33491,7 +33522,7 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B586" s="0" t="n">
         <v>2018</v>
@@ -33532,7 +33563,7 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B587" s="0" t="n">
         <v>2018</v>
@@ -33573,7 +33604,7 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B588" s="0" t="n">
         <v>2018</v>
@@ -33614,7 +33645,7 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B589" s="0" t="n">
         <v>2018</v>
@@ -33655,7 +33686,7 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B590" s="0" t="n">
         <v>2018</v>
@@ -33696,7 +33727,7 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B591" s="0" t="n">
         <v>2018</v>
@@ -33737,7 +33768,7 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B592" s="0" t="n">
         <v>2018</v>
@@ -33778,7 +33809,7 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B593" s="0" t="n">
         <v>2018</v>
@@ -33819,7 +33850,7 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B594" s="0" t="n">
         <v>2018</v>
@@ -33860,7 +33891,7 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B595" s="0" t="n">
         <v>2018</v>
@@ -33901,7 +33932,7 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B596" s="0" t="n">
         <v>2018</v>
@@ -33942,7 +33973,7 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B597" s="0" t="n">
         <v>2018</v>
@@ -33983,7 +34014,7 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B598" s="0" t="n">
         <v>2018</v>
@@ -34024,7 +34055,7 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B599" s="0" t="n">
         <v>2018</v>
@@ -34065,7 +34096,7 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B600" s="0" t="n">
         <v>2018</v>
@@ -34106,7 +34137,7 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B601" s="0" t="n">
         <v>2018</v>
@@ -34147,7 +34178,7 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B602" s="0" t="n">
         <v>2018</v>
@@ -34188,7 +34219,7 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B603" s="0" t="n">
         <v>2018</v>
@@ -34229,7 +34260,7 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B604" s="0" t="n">
         <v>2018</v>
@@ -34270,7 +34301,7 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B605" s="0" t="n">
         <v>2018</v>
@@ -34311,7 +34342,7 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B606" s="0" t="n">
         <v>2018</v>
@@ -34352,7 +34383,7 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B607" s="0" t="n">
         <v>2018</v>
@@ -34393,7 +34424,7 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B608" s="0" t="n">
         <v>2018</v>
@@ -34434,7 +34465,7 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B609" s="0" t="n">
         <v>2018</v>
@@ -34475,7 +34506,7 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B610" s="0" t="n">
         <v>2018</v>
@@ -34516,7 +34547,7 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B611" s="0" t="n">
         <v>2018</v>
@@ -34557,7 +34588,7 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B612" s="0" t="n">
         <v>2018</v>
@@ -34598,7 +34629,7 @@
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B613" s="0" t="n">
         <v>2018</v>
@@ -34639,7 +34670,7 @@
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B614" s="0" t="n">
         <v>2018</v>
@@ -34680,7 +34711,7 @@
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B615" s="0" t="n">
         <v>2018</v>
@@ -34721,7 +34752,7 @@
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B616" s="0" t="n">
         <v>2018</v>
@@ -34762,7 +34793,7 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B617" s="0" t="n">
         <v>2018</v>
@@ -34803,7 +34834,7 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B618" s="0" t="n">
         <v>2018</v>
@@ -34844,7 +34875,7 @@
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B619" s="0" t="n">
         <v>2018</v>
@@ -34885,7 +34916,7 @@
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B620" s="0" t="n">
         <v>2018</v>
@@ -34926,7 +34957,7 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B621" s="0" t="n">
         <v>2018</v>
@@ -34967,7 +34998,7 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B622" s="0" t="n">
         <v>2018</v>
@@ -35008,7 +35039,7 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B623" s="0" t="n">
         <v>2018</v>
@@ -35049,7 +35080,7 @@
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B624" s="0" t="n">
         <v>2018</v>
@@ -35090,7 +35121,7 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B625" s="0" t="n">
         <v>2018</v>
@@ -35131,7 +35162,7 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B626" s="0" t="n">
         <v>2018</v>
@@ -35172,7 +35203,7 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B627" s="0" t="n">
         <v>2018</v>
@@ -35213,7 +35244,7 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B628" s="0" t="n">
         <v>2018</v>
@@ -35254,7 +35285,7 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B629" s="0" t="n">
         <v>2018</v>
@@ -35295,7 +35326,7 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B630" s="0" t="n">
         <v>2018</v>
@@ -35336,7 +35367,7 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B631" s="0" t="n">
         <v>2018</v>
@@ -35377,7 +35408,7 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B632" s="0" t="n">
         <v>2018</v>
@@ -35418,7 +35449,7 @@
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B633" s="0" t="n">
         <v>2018</v>
@@ -35459,7 +35490,7 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B634" s="0" t="n">
         <v>2018</v>
@@ -35500,7 +35531,7 @@
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B635" s="0" t="n">
         <v>2018</v>
@@ -35541,7 +35572,7 @@
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B636" s="0" t="n">
         <v>2018</v>
@@ -35582,7 +35613,7 @@
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B637" s="0" t="n">
         <v>2018</v>
@@ -35623,7 +35654,7 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B638" s="0" t="n">
         <v>2018</v>
@@ -35664,7 +35695,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B639" s="0" t="n">
         <v>2018</v>
@@ -35705,7 +35736,7 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B640" s="0" t="n">
         <v>2018</v>
@@ -35746,7 +35777,7 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B641" s="0" t="n">
         <v>2018</v>
@@ -35787,7 +35818,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B642" s="0" t="n">
         <v>2018</v>
@@ -35828,7 +35859,7 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B643" s="0" t="n">
         <v>2018</v>
@@ -35869,7 +35900,7 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B644" s="0" t="n">
         <v>2018</v>
@@ -35910,7 +35941,7 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B645" s="0" t="n">
         <v>2018</v>
@@ -35951,7 +35982,7 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B646" s="0" t="n">
         <v>2018</v>
@@ -35992,7 +36023,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B647" s="0" t="n">
         <v>2018</v>
@@ -36033,7 +36064,7 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B648" s="0" t="n">
         <v>2018</v>
@@ -36074,7 +36105,7 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B649" s="0" t="n">
         <v>2018</v>
@@ -36115,7 +36146,7 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B650" s="0" t="n">
         <v>2018</v>
@@ -36156,7 +36187,7 @@
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B651" s="0" t="n">
         <v>2018</v>
@@ -36197,7 +36228,7 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B652" s="0" t="n">
         <v>2018</v>
@@ -36238,7 +36269,7 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B653" s="0" t="n">
         <v>2018</v>
@@ -36279,7 +36310,7 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B654" s="0" t="n">
         <v>2018</v>
@@ -36320,7 +36351,7 @@
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B655" s="0" t="n">
         <v>2018</v>
@@ -36361,7 +36392,7 @@
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B656" s="0" t="n">
         <v>2018</v>
@@ -36402,7 +36433,7 @@
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B657" s="0" t="n">
         <v>2018</v>
@@ -36443,7 +36474,7 @@
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B658" s="0" t="n">
         <v>2018</v>
@@ -36484,7 +36515,7 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B659" s="0" t="n">
         <v>2018</v>
@@ -36525,7 +36556,7 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B660" s="0" t="n">
         <v>2018</v>
@@ -36566,7 +36597,7 @@
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B661" s="0" t="n">
         <v>2018</v>
@@ -36607,7 +36638,7 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B662" s="0" t="n">
         <v>2018</v>
@@ -36648,7 +36679,7 @@
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B663" s="0" t="n">
         <v>2018</v>
@@ -36689,7 +36720,7 @@
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B664" s="0" t="n">
         <v>2018</v>
@@ -36730,7 +36761,7 @@
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B665" s="0" t="n">
         <v>2018</v>
@@ -36771,7 +36802,7 @@
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B666" s="0" t="n">
         <v>2018</v>
@@ -36812,7 +36843,7 @@
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B667" s="0" t="n">
         <v>2018</v>
@@ -36853,7 +36884,7 @@
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B668" s="0" t="n">
         <v>2018</v>
@@ -36894,7 +36925,7 @@
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B669" s="0" t="n">
         <v>2018</v>
@@ -36935,7 +36966,7 @@
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B670" s="0" t="n">
         <v>2018</v>
@@ -36976,7 +37007,7 @@
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B671" s="0" t="n">
         <v>2018</v>
@@ -37017,7 +37048,7 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B672" s="0" t="n">
         <v>2018</v>
@@ -37058,7 +37089,7 @@
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B673" s="0" t="n">
         <v>2018</v>
@@ -37099,7 +37130,7 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B674" s="0" t="n">
         <v>2018</v>
@@ -37140,7 +37171,7 @@
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B675" s="0" t="n">
         <v>2018</v>
@@ -37181,7 +37212,7 @@
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B676" s="0" t="n">
         <v>2018</v>
@@ -37222,7 +37253,7 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B677" s="0" t="n">
         <v>2018</v>
@@ -37263,7 +37294,7 @@
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B678" s="0" t="n">
         <v>2018</v>
@@ -37304,7 +37335,7 @@
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B679" s="0" t="n">
         <v>2018</v>
@@ -37345,7 +37376,7 @@
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B680" s="0" t="n">
         <v>2018</v>
@@ -37386,7 +37417,7 @@
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B681" s="0" t="n">
         <v>2018</v>
@@ -37427,7 +37458,7 @@
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B682" s="0" t="n">
         <v>2018</v>
@@ -37468,7 +37499,7 @@
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B683" s="0" t="n">
         <v>2018</v>
@@ -37509,7 +37540,7 @@
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B684" s="0" t="n">
         <v>2018</v>
@@ -37550,7 +37581,7 @@
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B685" s="0" t="n">
         <v>2018</v>
@@ -37591,7 +37622,7 @@
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B686" s="0" t="n">
         <v>2018</v>
@@ -37632,7 +37663,7 @@
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B687" s="0" t="n">
         <v>2018</v>
@@ -37673,7 +37704,7 @@
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B688" s="0" t="n">
         <v>2018</v>
@@ -37714,7 +37745,7 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B689" s="0" t="n">
         <v>2018</v>
@@ -37755,7 +37786,7 @@
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B690" s="0" t="n">
         <v>2018</v>
@@ -37796,7 +37827,7 @@
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B691" s="0" t="n">
         <v>2018</v>
@@ -37837,7 +37868,7 @@
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B692" s="0" t="n">
         <v>2018</v>
@@ -37878,7 +37909,7 @@
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B693" s="0" t="n">
         <v>2018</v>
@@ -37919,7 +37950,7 @@
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B694" s="0" t="n">
         <v>2018</v>
@@ -37960,7 +37991,7 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B695" s="0" t="n">
         <v>2018</v>
@@ -38001,7 +38032,7 @@
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B696" s="0" t="n">
         <v>2018</v>
@@ -38042,7 +38073,7 @@
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B697" s="0" t="n">
         <v>2018</v>
@@ -38083,7 +38114,7 @@
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B698" s="0" t="n">
         <v>2018</v>
@@ -38124,7 +38155,7 @@
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B699" s="0" t="n">
         <v>2018</v>
@@ -38165,7 +38196,7 @@
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B700" s="0" t="n">
         <v>2018</v>
@@ -38206,7 +38237,7 @@
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B701" s="0" t="n">
         <v>2018</v>
@@ -38247,7 +38278,7 @@
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B702" s="0" t="n">
         <v>2018</v>
@@ -38288,7 +38319,7 @@
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B703" s="0" t="n">
         <v>2018</v>
@@ -38329,7 +38360,7 @@
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B704" s="0" t="n">
         <v>2018</v>
@@ -38370,7 +38401,7 @@
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B705" s="0" t="n">
         <v>2018</v>
@@ -38411,7 +38442,7 @@
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B706" s="0" t="n">
         <v>2018</v>
@@ -38452,7 +38483,7 @@
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B707" s="0" t="n">
         <v>2018</v>
@@ -38493,7 +38524,7 @@
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B708" s="0" t="n">
         <v>2018</v>
@@ -38534,7 +38565,7 @@
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B709" s="0" t="n">
         <v>2018</v>
@@ -38575,7 +38606,7 @@
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B710" s="0" t="n">
         <v>2018</v>
@@ -38616,7 +38647,7 @@
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B711" s="0" t="n">
         <v>2018</v>
@@ -38657,7 +38688,7 @@
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B712" s="0" t="n">
         <v>2018</v>
@@ -38698,7 +38729,7 @@
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B713" s="0" t="n">
         <v>2018</v>
@@ -38739,7 +38770,7 @@
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B714" s="0" t="n">
         <v>2018</v>
@@ -38780,7 +38811,7 @@
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B715" s="0" t="n">
         <v>2018</v>
@@ -38821,7 +38852,7 @@
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B716" s="0" t="n">
         <v>2018</v>
@@ -38862,7 +38893,7 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B717" s="0" t="n">
         <v>2018</v>
@@ -38903,7 +38934,7 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B718" s="0" t="n">
         <v>2018</v>
@@ -38944,7 +38975,7 @@
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B719" s="0" t="n">
         <v>2018</v>
@@ -38985,7 +39016,7 @@
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B720" s="0" t="n">
         <v>2018</v>
@@ -39026,7 +39057,7 @@
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B721" s="0" t="n">
         <v>2018</v>
@@ -39067,7 +39098,7 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B722" s="0" t="n">
         <v>2018</v>
@@ -39108,7 +39139,7 @@
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B723" s="0" t="n">
         <v>2018</v>
@@ -39149,7 +39180,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B724" s="0" t="n">
         <v>2018</v>
@@ -39190,7 +39221,7 @@
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B725" s="0" t="n">
         <v>2018</v>
@@ -39231,7 +39262,7 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B726" s="0" t="n">
         <v>2018</v>
@@ -39272,7 +39303,7 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B727" s="0" t="n">
         <v>2018</v>
@@ -39313,7 +39344,7 @@
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B728" s="0" t="n">
         <v>2018</v>
@@ -39354,7 +39385,7 @@
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B729" s="0" t="n">
         <v>2018</v>
@@ -39395,7 +39426,7 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B730" s="0" t="n">
         <v>2018</v>
@@ -39436,7 +39467,7 @@
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B731" s="0" t="n">
         <v>2018</v>
